--- a/silver_fore.xlsx
+++ b/silver_fore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,25 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">   SILVER_FOR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>SILVER_FOR</t>
         </is>
@@ -458,9 +468,15 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>27.44466</v>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -470,9 +486,15 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
         <v>26.933548</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -482,9 +504,15 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
         <v>27.173124</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -494,9 +522,15 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
         <v>26.856646</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -506,17 +540,29 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
         <v>26.422922</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
         <v>30.93059290717292</v>
       </c>
     </row>
@@ -524,9 +570,15 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
         <v>30.6353459147918</v>
       </c>
     </row>
@@ -534,9 +586,15 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
         <v>30.30023174736436</v>
       </c>
     </row>
@@ -544,9 +602,15 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
         <v>29.53532024840348</v>
       </c>
     </row>
@@ -554,10 +618,146 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
         <v>29.15916464141611</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>31.76244298992617</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>32.23934168175691</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>32.5524573182023</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>32.38868114596181</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>32.10415671664822</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>28.81685345771996</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>28.51061683625062</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>27.67123246313037</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>27.34084839285276</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>26.94339908891732</v>
       </c>
     </row>
   </sheetData>

--- a/silver_fore.xlsx
+++ b/silver_fore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.4</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">   SILVER_FOR</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>SILVER_FOR</t>
         </is>
@@ -474,9 +484,15 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>27.44466</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,9 +508,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
         <v>26.933548</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -510,9 +532,15 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
         <v>27.173124</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -528,9 +556,15 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
         <v>26.856646</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -546,9 +580,15 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
         <v>26.422922</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -560,9 +600,15 @@
       <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
         <v>30.93059290717292</v>
       </c>
     </row>
@@ -576,9 +622,15 @@
       <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
         <v>30.6353459147918</v>
       </c>
     </row>
@@ -592,9 +644,15 @@
       <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
         <v>30.30023174736436</v>
       </c>
     </row>
@@ -608,9 +666,15 @@
       <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
         <v>29.53532024840348</v>
       </c>
     </row>
@@ -624,9 +688,15 @@
       <c r="C11" t="n">
         <v>9</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
         <v>29.15916464141611</v>
       </c>
     </row>
@@ -637,10 +707,16 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
         <v>31.76244298992617</v>
       </c>
     </row>
@@ -651,10 +727,16 @@
       <c r="B13" t="n">
         <v>11</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
         <v>32.23934168175691</v>
       </c>
     </row>
@@ -665,10 +747,16 @@
       <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
         <v>32.5524573182023</v>
       </c>
     </row>
@@ -679,10 +767,16 @@
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
         <v>32.38868114596181</v>
       </c>
     </row>
@@ -693,10 +787,16 @@
       <c r="B16" t="n">
         <v>14</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
         <v>32.10415671664822</v>
       </c>
     </row>
@@ -704,11 +804,17 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
         <v>28.81685345771996</v>
       </c>
     </row>
@@ -716,11 +822,17 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
         <v>28.51061683625062</v>
       </c>
     </row>
@@ -728,11 +840,17 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
         <v>27.67123246313037</v>
       </c>
     </row>
@@ -740,11 +858,17 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
         <v>27.34084839285276</v>
       </c>
     </row>
@@ -752,12 +876,168 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
         <v>26.94339908891732</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>29.09709106441289</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>28.96379896414152</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>28.94952882821161</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>29.52255201468267</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>28.89384280964123</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>28.95396845664823</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>28.94541683747048</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>28.70188153581586</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>27.87425082086361</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>28.09067066164505</v>
       </c>
     </row>
   </sheetData>

--- a/silver_fore.xlsx
+++ b/silver_fore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.6</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.5</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">   SILVER_FOR</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>SILVER_FOR</t>
         </is>
@@ -490,9 +500,15 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>27.44466</v>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,9 +530,15 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>26.933548</v>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +560,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
         <v>27.173124</v>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -562,9 +590,15 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
         <v>26.856646</v>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -586,9 +620,15 @@
         <v>4</v>
       </c>
       <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
         <v>26.422922</v>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -606,9 +646,15 @@
       <c r="E7" t="n">
         <v>5</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
         <v>30.93059290717292</v>
       </c>
     </row>
@@ -628,9 +674,15 @@
       <c r="E8" t="n">
         <v>6</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>30.6353459147918</v>
       </c>
     </row>
@@ -650,9 +702,15 @@
       <c r="E9" t="n">
         <v>7</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>30.30023174736436</v>
       </c>
     </row>
@@ -672,9 +730,15 @@
       <c r="E10" t="n">
         <v>8</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>29.53532024840348</v>
       </c>
     </row>
@@ -694,9 +758,15 @@
       <c r="E11" t="n">
         <v>9</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>29.15916464141611</v>
       </c>
     </row>
@@ -713,10 +783,16 @@
       <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
         <v>31.76244298992617</v>
       </c>
     </row>
@@ -733,10 +809,16 @@
       <c r="D13" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11</v>
+      </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>32.23934168175691</v>
       </c>
     </row>
@@ -753,10 +835,16 @@
       <c r="D14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>32.5524573182023</v>
       </c>
     </row>
@@ -773,10 +861,16 @@
       <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13</v>
+      </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>32.38868114596181</v>
       </c>
     </row>
@@ -793,10 +887,16 @@
       <c r="D16" t="n">
         <v>14</v>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14</v>
+      </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
         <v>32.10415671664822</v>
       </c>
     </row>
@@ -810,11 +910,17 @@
       <c r="C17" t="n">
         <v>15</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>28.81685345771996</v>
       </c>
     </row>
@@ -828,11 +934,17 @@
       <c r="C18" t="n">
         <v>16</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>28.51061683625062</v>
       </c>
     </row>
@@ -846,11 +958,17 @@
       <c r="C19" t="n">
         <v>17</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
         <v>27.67123246313037</v>
       </c>
     </row>
@@ -864,11 +982,17 @@
       <c r="C20" t="n">
         <v>18</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>27.34084839285276</v>
       </c>
     </row>
@@ -882,11 +1006,17 @@
       <c r="C21" t="n">
         <v>19</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>26.94339908891732</v>
       </c>
     </row>
@@ -897,12 +1027,18 @@
       <c r="B22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>29.09709106441289</v>
       </c>
     </row>
@@ -913,12 +1049,18 @@
       <c r="B23" t="n">
         <v>21</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>28.96379896414152</v>
       </c>
     </row>
@@ -929,12 +1071,18 @@
       <c r="B24" t="n">
         <v>22</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>28.94952882821161</v>
       </c>
     </row>
@@ -945,12 +1093,18 @@
       <c r="B25" t="n">
         <v>23</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>29.52255201468267</v>
       </c>
     </row>
@@ -961,12 +1115,18 @@
       <c r="B26" t="n">
         <v>24</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>28.89384280964123</v>
       </c>
     </row>
@@ -974,13 +1134,19 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>28.95396845664823</v>
       </c>
     </row>
@@ -988,13 +1154,19 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>28.94541683747048</v>
       </c>
     </row>
@@ -1002,13 +1174,19 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>28.70188153581586</v>
       </c>
     </row>
@@ -1016,13 +1194,19 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>27.87425082086361</v>
       </c>
     </row>
@@ -1030,14 +1214,190 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>28.09067066164505</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>31.23943548728738</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>31.04450482476813</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>30.54658087863896</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>30.17317577633884</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>29.77593984989414</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>29.80264645196246</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>29.55922128062565</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>29.30527315742233</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>28.8122954391917</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>28.18952363490905</v>
       </c>
     </row>
   </sheetData>

--- a/silver_fore.xlsx
+++ b/silver_fore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,55 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.8</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.7</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">   SILVER_FOR</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>SILVER_FOR</t>
         </is>
@@ -506,9 +516,15 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>27.44466</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -536,9 +552,15 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>26.933548</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -566,9 +588,15 @@
         <v>2</v>
       </c>
       <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
         <v>27.173124</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -596,9 +624,15 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
         <v>26.856646</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -626,9 +660,15 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
         <v>26.422922</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -652,9 +692,15 @@
       <c r="G7" t="n">
         <v>5</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
         <v>30.93059290717292</v>
       </c>
     </row>
@@ -680,9 +726,15 @@
       <c r="G8" t="n">
         <v>6</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
         <v>30.6353459147918</v>
       </c>
     </row>
@@ -708,9 +760,15 @@
       <c r="G9" t="n">
         <v>7</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
         <v>30.30023174736436</v>
       </c>
     </row>
@@ -736,9 +794,15 @@
       <c r="G10" t="n">
         <v>8</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
         <v>29.53532024840348</v>
       </c>
     </row>
@@ -764,9 +828,15 @@
       <c r="G11" t="n">
         <v>9</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
         <v>29.15916464141611</v>
       </c>
     </row>
@@ -789,10 +859,16 @@
       <c r="F12" t="n">
         <v>10</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
         <v>31.76244298992617</v>
       </c>
     </row>
@@ -815,10 +891,16 @@
       <c r="F13" t="n">
         <v>11</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11</v>
+      </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
         <v>32.23934168175691</v>
       </c>
     </row>
@@ -841,10 +923,16 @@
       <c r="F14" t="n">
         <v>12</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
         <v>32.5524573182023</v>
       </c>
     </row>
@@ -867,10 +955,16 @@
       <c r="F15" t="n">
         <v>13</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>13</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13</v>
+      </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
         <v>32.38868114596181</v>
       </c>
     </row>
@@ -893,10 +987,16 @@
       <c r="F16" t="n">
         <v>14</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14</v>
+      </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
         <v>32.10415671664822</v>
       </c>
     </row>
@@ -916,11 +1016,17 @@
       <c r="E17" t="n">
         <v>15</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15</v>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
         <v>28.81685345771996</v>
       </c>
     </row>
@@ -940,11 +1046,17 @@
       <c r="E18" t="n">
         <v>16</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
         <v>28.51061683625062</v>
       </c>
     </row>
@@ -964,11 +1076,17 @@
       <c r="E19" t="n">
         <v>17</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>17</v>
+      </c>
+      <c r="G19" t="n">
+        <v>17</v>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
         <v>27.67123246313037</v>
       </c>
     </row>
@@ -988,11 +1106,17 @@
       <c r="E20" t="n">
         <v>18</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" t="n">
+        <v>18</v>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
         <v>27.34084839285276</v>
       </c>
     </row>
@@ -1012,11 +1136,17 @@
       <c r="E21" t="n">
         <v>19</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" t="n">
+        <v>19</v>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
         <v>26.94339908891732</v>
       </c>
     </row>
@@ -1033,12 +1163,18 @@
       <c r="D22" t="n">
         <v>20</v>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
         <v>29.09709106441289</v>
       </c>
     </row>
@@ -1055,12 +1191,18 @@
       <c r="D23" t="n">
         <v>21</v>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" t="n">
+        <v>21</v>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
         <v>28.96379896414152</v>
       </c>
     </row>
@@ -1077,12 +1219,18 @@
       <c r="D24" t="n">
         <v>22</v>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="n">
+        <v>22</v>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
         <v>28.94952882821161</v>
       </c>
     </row>
@@ -1099,12 +1247,18 @@
       <c r="D25" t="n">
         <v>23</v>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
         <v>29.52255201468267</v>
       </c>
     </row>
@@ -1121,12 +1275,18 @@
       <c r="D26" t="n">
         <v>24</v>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" t="n">
+        <v>24</v>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
         <v>28.89384280964123</v>
       </c>
     </row>
@@ -1140,13 +1300,19 @@
       <c r="C27" t="n">
         <v>25</v>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25</v>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
         <v>28.95396845664823</v>
       </c>
     </row>
@@ -1160,13 +1326,19 @@
       <c r="C28" t="n">
         <v>26</v>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="n">
+        <v>26</v>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
         <v>28.94541683747048</v>
       </c>
     </row>
@@ -1180,13 +1352,19 @@
       <c r="C29" t="n">
         <v>27</v>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="n">
+        <v>27</v>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
         <v>28.70188153581586</v>
       </c>
     </row>
@@ -1200,13 +1378,19 @@
       <c r="C30" t="n">
         <v>28</v>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28</v>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
         <v>27.87425082086361</v>
       </c>
     </row>
@@ -1220,13 +1404,19 @@
       <c r="C31" t="n">
         <v>29</v>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="n">
+        <v>29</v>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
         <v>28.09067066164505</v>
       </c>
     </row>
@@ -1237,14 +1427,20 @@
       <c r="B32" t="n">
         <v>30</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
         <v>31.23943548728738</v>
       </c>
     </row>
@@ -1255,14 +1451,20 @@
       <c r="B33" t="n">
         <v>31</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
         <v>31.04450482476813</v>
       </c>
     </row>
@@ -1273,14 +1475,20 @@
       <c r="B34" t="n">
         <v>32</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
         <v>30.54658087863896</v>
       </c>
     </row>
@@ -1291,14 +1499,20 @@
       <c r="B35" t="n">
         <v>33</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
         <v>30.17317577633884</v>
       </c>
     </row>
@@ -1309,14 +1523,20 @@
       <c r="B36" t="n">
         <v>34</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="n">
+        <v>34</v>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
         <v>29.77593984989414</v>
       </c>
     </row>
@@ -1324,15 +1544,21 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
         <v>29.80264645196246</v>
       </c>
     </row>
@@ -1340,15 +1566,21 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
         <v>29.55922128062565</v>
       </c>
     </row>
@@ -1356,15 +1588,21 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
         <v>29.30527315742233</v>
       </c>
     </row>
@@ -1372,15 +1610,21 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
         <v>28.8122954391917</v>
       </c>
     </row>
@@ -1388,16 +1632,212 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
         <v>28.18952363490905</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>30.70601929298681</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>30.43889270062886</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>30.30290516082914</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>30.37639649853105</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>29.82201011509096</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>28.05217323242647</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>27.89165416433514</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>28.205499414136</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>28.41437395151866</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>28.78275573469779</v>
       </c>
     </row>
   </sheetData>

--- a/silver_fore.xlsx
+++ b/silver_fore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,55 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.10</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.9</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">   SILVER_FOR</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>SILVER_FOR</t>
         </is>
@@ -522,9 +532,15 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>27.44466</v>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -558,9 +574,15 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
         <v>26.933548</v>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -594,9 +616,15 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
         <v>27.173124</v>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -630,9 +658,15 @@
         <v>3</v>
       </c>
       <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
         <v>26.856646</v>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -666,9 +700,15 @@
         <v>4</v>
       </c>
       <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
         <v>26.422922</v>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -698,9 +738,15 @@
       <c r="I7" t="n">
         <v>5</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>30.93059290717292</v>
       </c>
     </row>
@@ -732,9 +778,15 @@
       <c r="I8" t="n">
         <v>6</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>30.6353459147918</v>
       </c>
     </row>
@@ -766,9 +818,15 @@
       <c r="I9" t="n">
         <v>7</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>30.30023174736436</v>
       </c>
     </row>
@@ -800,9 +858,15 @@
       <c r="I10" t="n">
         <v>8</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>29.53532024840348</v>
       </c>
     </row>
@@ -834,9 +898,15 @@
       <c r="I11" t="n">
         <v>9</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>29.15916464141611</v>
       </c>
     </row>
@@ -865,10 +935,16 @@
       <c r="H12" t="n">
         <v>10</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>31.76244298992617</v>
       </c>
     </row>
@@ -897,10 +973,16 @@
       <c r="H13" t="n">
         <v>11</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>32.23934168175691</v>
       </c>
     </row>
@@ -929,10 +1011,16 @@
       <c r="H14" t="n">
         <v>12</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>32.5524573182023</v>
       </c>
     </row>
@@ -961,10 +1049,16 @@
       <c r="H15" t="n">
         <v>13</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>13</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>32.38868114596181</v>
       </c>
     </row>
@@ -993,10 +1087,16 @@
       <c r="H16" t="n">
         <v>14</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>14</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>32.10415671664822</v>
       </c>
     </row>
@@ -1022,11 +1122,17 @@
       <c r="G17" t="n">
         <v>15</v>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>15</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>28.81685345771996</v>
       </c>
     </row>
@@ -1052,11 +1158,17 @@
       <c r="G18" t="n">
         <v>16</v>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>16</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>28.51061683625062</v>
       </c>
     </row>
@@ -1082,11 +1194,17 @@
       <c r="G19" t="n">
         <v>17</v>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>17</v>
+      </c>
+      <c r="I19" t="n">
+        <v>17</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>27.67123246313037</v>
       </c>
     </row>
@@ -1112,11 +1230,17 @@
       <c r="G20" t="n">
         <v>18</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>18</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>27.34084839285276</v>
       </c>
     </row>
@@ -1142,11 +1266,17 @@
       <c r="G21" t="n">
         <v>19</v>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>19</v>
+      </c>
+      <c r="I21" t="n">
+        <v>19</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>26.94339908891732</v>
       </c>
     </row>
@@ -1169,12 +1299,18 @@
       <c r="F22" t="n">
         <v>20</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" t="n">
+        <v>20</v>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>29.09709106441289</v>
       </c>
     </row>
@@ -1197,12 +1333,18 @@
       <c r="F23" t="n">
         <v>21</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>21</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21</v>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>28.96379896414152</v>
       </c>
     </row>
@@ -1225,12 +1367,18 @@
       <c r="F24" t="n">
         <v>22</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>22</v>
+      </c>
+      <c r="H24" t="n">
+        <v>22</v>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>28.94952882821161</v>
       </c>
     </row>
@@ -1253,12 +1401,18 @@
       <c r="F25" t="n">
         <v>23</v>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>23</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23</v>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>29.52255201468267</v>
       </c>
     </row>
@@ -1281,12 +1435,18 @@
       <c r="F26" t="n">
         <v>24</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>24</v>
+      </c>
+      <c r="H26" t="n">
+        <v>24</v>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>28.89384280964123</v>
       </c>
     </row>
@@ -1306,13 +1466,19 @@
       <c r="E27" t="n">
         <v>25</v>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>25</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>28.95396845664823</v>
       </c>
     </row>
@@ -1332,13 +1498,19 @@
       <c r="E28" t="n">
         <v>26</v>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>26</v>
+      </c>
+      <c r="G28" t="n">
+        <v>26</v>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>28.94541683747048</v>
       </c>
     </row>
@@ -1358,13 +1530,19 @@
       <c r="E29" t="n">
         <v>27</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>27</v>
+      </c>
+      <c r="G29" t="n">
+        <v>27</v>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>28.70188153581586</v>
       </c>
     </row>
@@ -1384,13 +1562,19 @@
       <c r="E30" t="n">
         <v>28</v>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>28</v>
+      </c>
+      <c r="G30" t="n">
+        <v>28</v>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>27.87425082086361</v>
       </c>
     </row>
@@ -1410,13 +1594,19 @@
       <c r="E31" t="n">
         <v>29</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>29</v>
+      </c>
+      <c r="G31" t="n">
+        <v>29</v>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>28.09067066164505</v>
       </c>
     </row>
@@ -1433,14 +1623,20 @@
       <c r="D32" t="n">
         <v>30</v>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>30</v>
+      </c>
+      <c r="F32" t="n">
+        <v>30</v>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>31.23943548728738</v>
       </c>
     </row>
@@ -1457,14 +1653,20 @@
       <c r="D33" t="n">
         <v>31</v>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>31</v>
+      </c>
+      <c r="F33" t="n">
+        <v>31</v>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>31.04450482476813</v>
       </c>
     </row>
@@ -1481,14 +1683,20 @@
       <c r="D34" t="n">
         <v>32</v>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>32</v>
+      </c>
+      <c r="F34" t="n">
+        <v>32</v>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>30.54658087863896</v>
       </c>
     </row>
@@ -1505,14 +1713,20 @@
       <c r="D35" t="n">
         <v>33</v>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>33</v>
+      </c>
+      <c r="F35" t="n">
+        <v>33</v>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>30.17317577633884</v>
       </c>
     </row>
@@ -1529,14 +1743,20 @@
       <c r="D36" t="n">
         <v>34</v>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>34</v>
+      </c>
+      <c r="F36" t="n">
+        <v>34</v>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>29.77593984989414</v>
       </c>
     </row>
@@ -1550,15 +1770,21 @@
       <c r="C37" t="n">
         <v>35</v>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="n">
+        <v>35</v>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>29.80264645196246</v>
       </c>
     </row>
@@ -1572,15 +1798,21 @@
       <c r="C38" t="n">
         <v>36</v>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="n">
+        <v>36</v>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>29.55922128062565</v>
       </c>
     </row>
@@ -1594,15 +1826,21 @@
       <c r="C39" t="n">
         <v>37</v>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" t="n">
+        <v>37</v>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>29.30527315742233</v>
       </c>
     </row>
@@ -1616,15 +1854,21 @@
       <c r="C40" t="n">
         <v>38</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>38</v>
+      </c>
+      <c r="E40" t="n">
+        <v>38</v>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>28.8122954391917</v>
       </c>
     </row>
@@ -1638,15 +1882,21 @@
       <c r="C41" t="n">
         <v>39</v>
       </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="n">
+        <v>39</v>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>28.18952363490905</v>
       </c>
     </row>
@@ -1657,8 +1907,12 @@
       <c r="B42" t="n">
         <v>40</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="n">
+        <v>40</v>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -1666,7 +1920,9 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>30.70601929298681</v>
       </c>
     </row>
@@ -1677,8 +1933,12 @@
       <c r="B43" t="n">
         <v>41</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="n">
+        <v>41</v>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -1686,7 +1946,9 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>30.43889270062886</v>
       </c>
     </row>
@@ -1697,8 +1959,12 @@
       <c r="B44" t="n">
         <v>42</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="n">
+        <v>42</v>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -1706,7 +1972,9 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>30.30290516082914</v>
       </c>
     </row>
@@ -1717,8 +1985,12 @@
       <c r="B45" t="n">
         <v>43</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="n">
+        <v>43</v>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -1726,7 +1998,9 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>30.37639649853105</v>
       </c>
     </row>
@@ -1737,8 +2011,12 @@
       <c r="B46" t="n">
         <v>44</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="n">
+        <v>44</v>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -1746,7 +2024,9 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>29.82201011509096</v>
       </c>
     </row>
@@ -1754,8 +2034,12 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
@@ -1764,7 +2048,9 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>28.05217323242647</v>
       </c>
     </row>
@@ -1772,8 +2058,12 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
@@ -1782,7 +2072,9 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>27.89165416433514</v>
       </c>
     </row>
@@ -1790,8 +2082,12 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
@@ -1800,7 +2096,9 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>28.205499414136</v>
       </c>
     </row>
@@ -1808,8 +2106,12 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
@@ -1818,7 +2120,9 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>28.41437395151866</v>
       </c>
     </row>
@@ -1826,8 +2130,12 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
@@ -1836,8 +2144,220 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>28.78275573469779</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
+        <v>31.55722890898164</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
+        <v>30.83284674360289</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
+        <v>30.74265827309239</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>30.71705159757317</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>30.40893174766933</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>30.00756593430685</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>29.61517987173261</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
+        <v>28.95441448443535</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
+        <v>28.93568544726321</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
+        <v>29.07687113806344</v>
       </c>
     </row>
   </sheetData>

--- a/silver_fore.xlsx
+++ b/silver_fore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,65 +436,75 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.12</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.11</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">   SILVER_FOR</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>SILVER_FOR</t>
         </is>
@@ -538,9 +548,15 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>27.44466</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -580,9 +596,15 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
         <v>26.933548</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -622,9 +644,15 @@
         <v>2</v>
       </c>
       <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
         <v>27.173124</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -664,9 +692,15 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
         <v>26.856646</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -706,9 +740,15 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="n">
         <v>26.422922</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -744,9 +784,15 @@
       <c r="K7" t="n">
         <v>5</v>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="n">
         <v>30.93059290717292</v>
       </c>
     </row>
@@ -784,9 +830,15 @@
       <c r="K8" t="n">
         <v>6</v>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="n">
         <v>30.6353459147918</v>
       </c>
     </row>
@@ -824,9 +876,15 @@
       <c r="K9" t="n">
         <v>7</v>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="n">
         <v>30.30023174736436</v>
       </c>
     </row>
@@ -864,9 +922,15 @@
       <c r="K10" t="n">
         <v>8</v>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="L10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="n">
         <v>29.53532024840348</v>
       </c>
     </row>
@@ -904,9 +968,15 @@
       <c r="K11" t="n">
         <v>9</v>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="L11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>9</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="n">
         <v>29.15916464141611</v>
       </c>
     </row>
@@ -941,10 +1011,16 @@
       <c r="J12" t="n">
         <v>10</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="n">
         <v>31.76244298992617</v>
       </c>
     </row>
@@ -979,10 +1055,16 @@
       <c r="J13" t="n">
         <v>11</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>11</v>
+      </c>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="n">
         <v>32.23934168175691</v>
       </c>
     </row>
@@ -1017,10 +1099,16 @@
       <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L14" t="n">
+        <v>12</v>
+      </c>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="n">
         <v>32.5524573182023</v>
       </c>
     </row>
@@ -1055,10 +1143,16 @@
       <c r="J15" t="n">
         <v>13</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>13</v>
+      </c>
+      <c r="L15" t="n">
+        <v>13</v>
+      </c>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="n">
         <v>32.38868114596181</v>
       </c>
     </row>
@@ -1093,10 +1187,16 @@
       <c r="J16" t="n">
         <v>14</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>14</v>
+      </c>
+      <c r="L16" t="n">
+        <v>14</v>
+      </c>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="n">
         <v>32.10415671664822</v>
       </c>
     </row>
@@ -1128,11 +1228,17 @@
       <c r="I17" t="n">
         <v>15</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>15</v>
+      </c>
+      <c r="K17" t="n">
+        <v>15</v>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="n">
         <v>28.81685345771996</v>
       </c>
     </row>
@@ -1164,11 +1270,17 @@
       <c r="I18" t="n">
         <v>16</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>16</v>
+      </c>
+      <c r="K18" t="n">
+        <v>16</v>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="n">
         <v>28.51061683625062</v>
       </c>
     </row>
@@ -1200,11 +1312,17 @@
       <c r="I19" t="n">
         <v>17</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>17</v>
+      </c>
+      <c r="K19" t="n">
+        <v>17</v>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="n">
         <v>27.67123246313037</v>
       </c>
     </row>
@@ -1236,11 +1354,17 @@
       <c r="I20" t="n">
         <v>18</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>18</v>
+      </c>
+      <c r="K20" t="n">
+        <v>18</v>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="n">
         <v>27.34084839285276</v>
       </c>
     </row>
@@ -1272,11 +1396,17 @@
       <c r="I21" t="n">
         <v>19</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>19</v>
+      </c>
+      <c r="K21" t="n">
+        <v>19</v>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="n">
         <v>26.94339908891732</v>
       </c>
     </row>
@@ -1305,12 +1435,18 @@
       <c r="H22" t="n">
         <v>20</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>20</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="n">
         <v>29.09709106441289</v>
       </c>
     </row>
@@ -1339,12 +1475,18 @@
       <c r="H23" t="n">
         <v>21</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>21</v>
+      </c>
+      <c r="J23" t="n">
+        <v>21</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="n">
         <v>28.96379896414152</v>
       </c>
     </row>
@@ -1373,12 +1515,18 @@
       <c r="H24" t="n">
         <v>22</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>22</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="n">
         <v>28.94952882821161</v>
       </c>
     </row>
@@ -1407,12 +1555,18 @@
       <c r="H25" t="n">
         <v>23</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>23</v>
+      </c>
+      <c r="J25" t="n">
+        <v>23</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="n">
         <v>29.52255201468267</v>
       </c>
     </row>
@@ -1441,12 +1595,18 @@
       <c r="H26" t="n">
         <v>24</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>24</v>
+      </c>
+      <c r="J26" t="n">
+        <v>24</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="n">
         <v>28.89384280964123</v>
       </c>
     </row>
@@ -1472,13 +1632,19 @@
       <c r="G27" t="n">
         <v>25</v>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>25</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="n">
         <v>28.95396845664823</v>
       </c>
     </row>
@@ -1504,13 +1670,19 @@
       <c r="G28" t="n">
         <v>26</v>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>26</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="n">
         <v>28.94541683747048</v>
       </c>
     </row>
@@ -1536,13 +1708,19 @@
       <c r="G29" t="n">
         <v>27</v>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>27</v>
+      </c>
+      <c r="I29" t="n">
+        <v>27</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="n">
         <v>28.70188153581586</v>
       </c>
     </row>
@@ -1568,13 +1746,19 @@
       <c r="G30" t="n">
         <v>28</v>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>28</v>
+      </c>
+      <c r="I30" t="n">
+        <v>28</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="n">
         <v>27.87425082086361</v>
       </c>
     </row>
@@ -1600,13 +1784,19 @@
       <c r="G31" t="n">
         <v>29</v>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>29</v>
+      </c>
+      <c r="I31" t="n">
+        <v>29</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="n">
         <v>28.09067066164505</v>
       </c>
     </row>
@@ -1629,14 +1819,20 @@
       <c r="F32" t="n">
         <v>30</v>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>30</v>
+      </c>
+      <c r="H32" t="n">
+        <v>30</v>
+      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="n">
         <v>31.23943548728738</v>
       </c>
     </row>
@@ -1659,14 +1855,20 @@
       <c r="F33" t="n">
         <v>31</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>31</v>
+      </c>
+      <c r="H33" t="n">
+        <v>31</v>
+      </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="n">
         <v>31.04450482476813</v>
       </c>
     </row>
@@ -1689,14 +1891,20 @@
       <c r="F34" t="n">
         <v>32</v>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>32</v>
+      </c>
+      <c r="H34" t="n">
+        <v>32</v>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="n">
         <v>30.54658087863896</v>
       </c>
     </row>
@@ -1719,14 +1927,20 @@
       <c r="F35" t="n">
         <v>33</v>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>33</v>
+      </c>
+      <c r="H35" t="n">
+        <v>33</v>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="n">
         <v>30.17317577633884</v>
       </c>
     </row>
@@ -1749,14 +1963,20 @@
       <c r="F36" t="n">
         <v>34</v>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>34</v>
+      </c>
+      <c r="H36" t="n">
+        <v>34</v>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="n">
         <v>29.77593984989414</v>
       </c>
     </row>
@@ -1776,15 +1996,21 @@
       <c r="E37" t="n">
         <v>35</v>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>35</v>
+      </c>
+      <c r="G37" t="n">
+        <v>35</v>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="n">
         <v>29.80264645196246</v>
       </c>
     </row>
@@ -1804,15 +2030,21 @@
       <c r="E38" t="n">
         <v>36</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>36</v>
+      </c>
+      <c r="G38" t="n">
+        <v>36</v>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="n">
         <v>29.55922128062565</v>
       </c>
     </row>
@@ -1832,15 +2064,21 @@
       <c r="E39" t="n">
         <v>37</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>37</v>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="n">
         <v>29.30527315742233</v>
       </c>
     </row>
@@ -1860,15 +2098,21 @@
       <c r="E40" t="n">
         <v>38</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>38</v>
+      </c>
+      <c r="G40" t="n">
+        <v>38</v>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="n">
         <v>28.8122954391917</v>
       </c>
     </row>
@@ -1888,15 +2132,21 @@
       <c r="E41" t="n">
         <v>39</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>39</v>
+      </c>
+      <c r="G41" t="n">
+        <v>39</v>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="n">
         <v>28.18952363490905</v>
       </c>
     </row>
@@ -1913,8 +2163,12 @@
       <c r="D42" t="n">
         <v>40</v>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>40</v>
+      </c>
+      <c r="F42" t="n">
+        <v>40</v>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -1922,7 +2176,9 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="n">
         <v>30.70601929298681</v>
       </c>
     </row>
@@ -1939,8 +2195,12 @@
       <c r="D43" t="n">
         <v>41</v>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>41</v>
+      </c>
+      <c r="F43" t="n">
+        <v>41</v>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -1948,7 +2208,9 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="n">
         <v>30.43889270062886</v>
       </c>
     </row>
@@ -1965,8 +2227,12 @@
       <c r="D44" t="n">
         <v>42</v>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>42</v>
+      </c>
+      <c r="F44" t="n">
+        <v>42</v>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -1974,7 +2240,9 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="n">
         <v>30.30290516082914</v>
       </c>
     </row>
@@ -1991,8 +2259,12 @@
       <c r="D45" t="n">
         <v>43</v>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>43</v>
+      </c>
+      <c r="F45" t="n">
+        <v>43</v>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -2000,7 +2272,9 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="n">
         <v>30.37639649853105</v>
       </c>
     </row>
@@ -2017,8 +2291,12 @@
       <c r="D46" t="n">
         <v>44</v>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>44</v>
+      </c>
+      <c r="F46" t="n">
+        <v>44</v>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -2026,7 +2304,9 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="n">
         <v>29.82201011509096</v>
       </c>
     </row>
@@ -2040,8 +2320,12 @@
       <c r="C47" t="n">
         <v>45</v>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>45</v>
+      </c>
+      <c r="E47" t="n">
+        <v>45</v>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -2050,7 +2334,9 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="n">
         <v>28.05217323242647</v>
       </c>
     </row>
@@ -2064,8 +2350,12 @@
       <c r="C48" t="n">
         <v>46</v>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>46</v>
+      </c>
+      <c r="E48" t="n">
+        <v>46</v>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -2074,7 +2364,9 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="n">
         <v>27.89165416433514</v>
       </c>
     </row>
@@ -2088,8 +2380,12 @@
       <c r="C49" t="n">
         <v>47</v>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>47</v>
+      </c>
+      <c r="E49" t="n">
+        <v>47</v>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -2098,7 +2394,9 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="n">
         <v>28.205499414136</v>
       </c>
     </row>
@@ -2112,8 +2410,12 @@
       <c r="C50" t="n">
         <v>48</v>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>48</v>
+      </c>
+      <c r="E50" t="n">
+        <v>48</v>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -2122,7 +2424,9 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="n">
         <v>28.41437395151866</v>
       </c>
     </row>
@@ -2136,8 +2440,12 @@
       <c r="C51" t="n">
         <v>49</v>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>49</v>
+      </c>
+      <c r="E51" t="n">
+        <v>49</v>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -2146,7 +2454,9 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="n">
         <v>28.78275573469779</v>
       </c>
     </row>
@@ -2157,8 +2467,12 @@
       <c r="B52" t="n">
         <v>50</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2168,7 +2482,9 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="n">
         <v>31.55722890898164</v>
       </c>
     </row>
@@ -2179,8 +2495,12 @@
       <c r="B53" t="n">
         <v>51</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="n">
+        <v>51</v>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2190,7 +2510,9 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="n">
         <v>30.83284674360289</v>
       </c>
     </row>
@@ -2201,8 +2523,12 @@
       <c r="B54" t="n">
         <v>52</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="n">
+        <v>52</v>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -2212,7 +2538,9 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="n">
         <v>30.74265827309239</v>
       </c>
     </row>
@@ -2223,8 +2551,12 @@
       <c r="B55" t="n">
         <v>53</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="n">
+        <v>53</v>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -2234,7 +2566,9 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="n">
         <v>30.71705159757317</v>
       </c>
     </row>
@@ -2245,8 +2579,12 @@
       <c r="B56" t="n">
         <v>54</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="n">
+        <v>54</v>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2256,7 +2594,9 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="n">
         <v>30.40893174766933</v>
       </c>
     </row>
@@ -2264,8 +2604,12 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
@@ -2276,7 +2620,9 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="n">
         <v>30.00756593430685</v>
       </c>
     </row>
@@ -2284,8 +2630,12 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
@@ -2296,7 +2646,9 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="n">
         <v>29.61517987173261</v>
       </c>
     </row>
@@ -2304,8 +2656,12 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
@@ -2316,7 +2672,9 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="n">
         <v>28.95441448443535</v>
       </c>
     </row>
@@ -2324,8 +2682,12 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
@@ -2336,7 +2698,9 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="n">
         <v>28.93568544726321</v>
       </c>
     </row>
@@ -2344,8 +2708,12 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
@@ -2356,8 +2724,240 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="n">
         <v>29.07687113806344</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="n">
+        <v>30.66437626656585</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="n">
+        <v>29.71554851349543</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="n">
+        <v>29.37691292915611</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="n">
+        <v>29.73525220398017</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="n">
+        <v>30.20347400339665</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="n">
+        <v>30.05011065270486</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="n">
+        <v>29.4726120454439</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="n">
+        <v>29.81097643387562</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="n">
+        <v>29.90499743944582</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="n">
+        <v>29.14887020995906</v>
       </c>
     </row>
   </sheetData>

--- a/silver_fore.xlsx
+++ b/silver_fore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,75 +436,85 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.14</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.13</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">   SILVER_FOR</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>SILVER_FOR</t>
         </is>
@@ -554,9 +564,15 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>27.44466</v>
       </c>
-      <c r="P2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -602,9 +618,15 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
         <v>26.933548</v>
       </c>
-      <c r="P3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -650,9 +672,15 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
         <v>27.173124</v>
       </c>
-      <c r="P4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -698,9 +726,15 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
         <v>26.856646</v>
       </c>
-      <c r="P5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -746,9 +780,15 @@
         <v>4</v>
       </c>
       <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
         <v>26.422922</v>
       </c>
-      <c r="P6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -790,9 +830,15 @@
       <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
         <v>30.93059290717292</v>
       </c>
     </row>
@@ -836,9 +882,15 @@
       <c r="M8" t="n">
         <v>6</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
         <v>30.6353459147918</v>
       </c>
     </row>
@@ -882,9 +934,15 @@
       <c r="M9" t="n">
         <v>7</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
         <v>30.30023174736436</v>
       </c>
     </row>
@@ -928,9 +986,15 @@
       <c r="M10" t="n">
         <v>8</v>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
         <v>29.53532024840348</v>
       </c>
     </row>
@@ -974,9 +1038,15 @@
       <c r="M11" t="n">
         <v>9</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>9</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
         <v>29.15916464141611</v>
       </c>
     </row>
@@ -1017,10 +1087,16 @@
       <c r="L12" t="n">
         <v>10</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
         <v>31.76244298992617</v>
       </c>
     </row>
@@ -1061,10 +1137,16 @@
       <c r="L13" t="n">
         <v>11</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
         <v>32.23934168175691</v>
       </c>
     </row>
@@ -1105,10 +1187,16 @@
       <c r="L14" t="n">
         <v>12</v>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>12</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12</v>
+      </c>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
         <v>32.5524573182023</v>
       </c>
     </row>
@@ -1149,10 +1237,16 @@
       <c r="L15" t="n">
         <v>13</v>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>13</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
         <v>32.38868114596181</v>
       </c>
     </row>
@@ -1193,10 +1287,16 @@
       <c r="L16" t="n">
         <v>14</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>14</v>
+      </c>
+      <c r="N16" t="n">
+        <v>14</v>
+      </c>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
         <v>32.10415671664822</v>
       </c>
     </row>
@@ -1234,11 +1334,17 @@
       <c r="K17" t="n">
         <v>15</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>15</v>
+      </c>
+      <c r="M17" t="n">
+        <v>15</v>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
         <v>28.81685345771996</v>
       </c>
     </row>
@@ -1276,11 +1382,17 @@
       <c r="K18" t="n">
         <v>16</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>16</v>
+      </c>
+      <c r="M18" t="n">
+        <v>16</v>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
         <v>28.51061683625062</v>
       </c>
     </row>
@@ -1318,11 +1430,17 @@
       <c r="K19" t="n">
         <v>17</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>17</v>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
         <v>27.67123246313037</v>
       </c>
     </row>
@@ -1360,11 +1478,17 @@
       <c r="K20" t="n">
         <v>18</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>18</v>
+      </c>
+      <c r="M20" t="n">
+        <v>18</v>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
         <v>27.34084839285276</v>
       </c>
     </row>
@@ -1402,11 +1526,17 @@
       <c r="K21" t="n">
         <v>19</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>19</v>
+      </c>
+      <c r="M21" t="n">
+        <v>19</v>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
         <v>26.94339908891732</v>
       </c>
     </row>
@@ -1441,12 +1571,18 @@
       <c r="J22" t="n">
         <v>20</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
+      <c r="L22" t="n">
+        <v>20</v>
+      </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="n">
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
         <v>29.09709106441289</v>
       </c>
     </row>
@@ -1481,12 +1617,18 @@
       <c r="J23" t="n">
         <v>21</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>21</v>
+      </c>
+      <c r="L23" t="n">
+        <v>21</v>
+      </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
         <v>28.96379896414152</v>
       </c>
     </row>
@@ -1521,12 +1663,18 @@
       <c r="J24" t="n">
         <v>22</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>22</v>
+      </c>
+      <c r="L24" t="n">
+        <v>22</v>
+      </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
         <v>28.94952882821161</v>
       </c>
     </row>
@@ -1561,12 +1709,18 @@
       <c r="J25" t="n">
         <v>23</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>23</v>
+      </c>
+      <c r="L25" t="n">
+        <v>23</v>
+      </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="n">
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
         <v>29.52255201468267</v>
       </c>
     </row>
@@ -1601,12 +1755,18 @@
       <c r="J26" t="n">
         <v>24</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>24</v>
+      </c>
+      <c r="L26" t="n">
+        <v>24</v>
+      </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="n">
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="n">
         <v>28.89384280964123</v>
       </c>
     </row>
@@ -1638,13 +1798,19 @@
       <c r="I27" t="n">
         <v>25</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>25</v>
+      </c>
+      <c r="K27" t="n">
+        <v>25</v>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="n">
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="n">
         <v>28.95396845664823</v>
       </c>
     </row>
@@ -1676,13 +1842,19 @@
       <c r="I28" t="n">
         <v>26</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>26</v>
+      </c>
+      <c r="K28" t="n">
+        <v>26</v>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="n">
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="n">
         <v>28.94541683747048</v>
       </c>
     </row>
@@ -1714,13 +1886,19 @@
       <c r="I29" t="n">
         <v>27</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>27</v>
+      </c>
+      <c r="K29" t="n">
+        <v>27</v>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="n">
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="n">
         <v>28.70188153581586</v>
       </c>
     </row>
@@ -1752,13 +1930,19 @@
       <c r="I30" t="n">
         <v>28</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>28</v>
+      </c>
+      <c r="K30" t="n">
+        <v>28</v>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="n">
         <v>27.87425082086361</v>
       </c>
     </row>
@@ -1790,13 +1974,19 @@
       <c r="I31" t="n">
         <v>29</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>29</v>
+      </c>
+      <c r="K31" t="n">
+        <v>29</v>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="n">
         <v>28.09067066164505</v>
       </c>
     </row>
@@ -1825,14 +2015,20 @@
       <c r="H32" t="n">
         <v>30</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>30</v>
+      </c>
+      <c r="J32" t="n">
+        <v>30</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="n">
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="n">
         <v>31.23943548728738</v>
       </c>
     </row>
@@ -1861,14 +2057,20 @@
       <c r="H33" t="n">
         <v>31</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>31</v>
+      </c>
+      <c r="J33" t="n">
+        <v>31</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="n">
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="n">
         <v>31.04450482476813</v>
       </c>
     </row>
@@ -1897,14 +2099,20 @@
       <c r="H34" t="n">
         <v>32</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>32</v>
+      </c>
+      <c r="J34" t="n">
+        <v>32</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="n">
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="n">
         <v>30.54658087863896</v>
       </c>
     </row>
@@ -1933,14 +2141,20 @@
       <c r="H35" t="n">
         <v>33</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>33</v>
+      </c>
+      <c r="J35" t="n">
+        <v>33</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="n">
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="n">
         <v>30.17317577633884</v>
       </c>
     </row>
@@ -1969,14 +2183,20 @@
       <c r="H36" t="n">
         <v>34</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>34</v>
+      </c>
+      <c r="J36" t="n">
+        <v>34</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="n">
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="n">
         <v>29.77593984989414</v>
       </c>
     </row>
@@ -2002,15 +2222,21 @@
       <c r="G37" t="n">
         <v>35</v>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>35</v>
+      </c>
+      <c r="I37" t="n">
+        <v>35</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="n">
         <v>29.80264645196246</v>
       </c>
     </row>
@@ -2036,15 +2262,21 @@
       <c r="G38" t="n">
         <v>36</v>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>36</v>
+      </c>
+      <c r="I38" t="n">
+        <v>36</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="n">
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="n">
         <v>29.55922128062565</v>
       </c>
     </row>
@@ -2070,15 +2302,21 @@
       <c r="G39" t="n">
         <v>37</v>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>37</v>
+      </c>
+      <c r="I39" t="n">
+        <v>37</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="n">
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="n">
         <v>29.30527315742233</v>
       </c>
     </row>
@@ -2104,15 +2342,21 @@
       <c r="G40" t="n">
         <v>38</v>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>38</v>
+      </c>
+      <c r="I40" t="n">
+        <v>38</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
-      <c r="P40" t="n">
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="n">
         <v>28.8122954391917</v>
       </c>
     </row>
@@ -2138,15 +2382,21 @@
       <c r="G41" t="n">
         <v>39</v>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>39</v>
+      </c>
+      <c r="I41" t="n">
+        <v>39</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="n">
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="n">
         <v>28.18952363490905</v>
       </c>
     </row>
@@ -2169,8 +2419,12 @@
       <c r="F42" t="n">
         <v>40</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="n">
+        <v>40</v>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2178,7 +2432,9 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="n">
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="n">
         <v>30.70601929298681</v>
       </c>
     </row>
@@ -2201,8 +2457,12 @@
       <c r="F43" t="n">
         <v>41</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>41</v>
+      </c>
+      <c r="H43" t="n">
+        <v>41</v>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2210,7 +2470,9 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="n">
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="n">
         <v>30.43889270062886</v>
       </c>
     </row>
@@ -2233,8 +2495,12 @@
       <c r="F44" t="n">
         <v>42</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>42</v>
+      </c>
+      <c r="H44" t="n">
+        <v>42</v>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2242,7 +2508,9 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="n">
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="n">
         <v>30.30290516082914</v>
       </c>
     </row>
@@ -2265,8 +2533,12 @@
       <c r="F45" t="n">
         <v>43</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>43</v>
+      </c>
+      <c r="H45" t="n">
+        <v>43</v>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2274,7 +2546,9 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="n">
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="n">
         <v>30.37639649853105</v>
       </c>
     </row>
@@ -2297,8 +2571,12 @@
       <c r="F46" t="n">
         <v>44</v>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>44</v>
+      </c>
+      <c r="H46" t="n">
+        <v>44</v>
+      </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2306,7 +2584,9 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="n">
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="n">
         <v>29.82201011509096</v>
       </c>
     </row>
@@ -2326,8 +2606,12 @@
       <c r="E47" t="n">
         <v>45</v>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>45</v>
+      </c>
+      <c r="G47" t="n">
+        <v>45</v>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2336,7 +2620,9 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="n">
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="n">
         <v>28.05217323242647</v>
       </c>
     </row>
@@ -2356,8 +2642,12 @@
       <c r="E48" t="n">
         <v>46</v>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>46</v>
+      </c>
+      <c r="G48" t="n">
+        <v>46</v>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2366,7 +2656,9 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="n">
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="n">
         <v>27.89165416433514</v>
       </c>
     </row>
@@ -2386,8 +2678,12 @@
       <c r="E49" t="n">
         <v>47</v>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>47</v>
+      </c>
+      <c r="G49" t="n">
+        <v>47</v>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2396,7 +2692,9 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="n">
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="n">
         <v>28.205499414136</v>
       </c>
     </row>
@@ -2416,8 +2714,12 @@
       <c r="E50" t="n">
         <v>48</v>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>48</v>
+      </c>
+      <c r="G50" t="n">
+        <v>48</v>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2426,7 +2728,9 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="n">
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="n">
         <v>28.41437395151866</v>
       </c>
     </row>
@@ -2446,8 +2750,12 @@
       <c r="E51" t="n">
         <v>49</v>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>49</v>
+      </c>
+      <c r="G51" t="n">
+        <v>49</v>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2456,7 +2764,9 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="n">
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="n">
         <v>28.78275573469779</v>
       </c>
     </row>
@@ -2473,8 +2783,12 @@
       <c r="D52" t="n">
         <v>50</v>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>50</v>
+      </c>
+      <c r="F52" t="n">
+        <v>50</v>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -2484,7 +2798,9 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="n">
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="n">
         <v>31.55722890898164</v>
       </c>
     </row>
@@ -2501,8 +2817,12 @@
       <c r="D53" t="n">
         <v>51</v>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>51</v>
+      </c>
+      <c r="F53" t="n">
+        <v>51</v>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -2512,7 +2832,9 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="n">
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="n">
         <v>30.83284674360289</v>
       </c>
     </row>
@@ -2529,8 +2851,12 @@
       <c r="D54" t="n">
         <v>52</v>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>52</v>
+      </c>
+      <c r="F54" t="n">
+        <v>52</v>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -2540,7 +2866,9 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="n">
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="n">
         <v>30.74265827309239</v>
       </c>
     </row>
@@ -2557,8 +2885,12 @@
       <c r="D55" t="n">
         <v>53</v>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>53</v>
+      </c>
+      <c r="F55" t="n">
+        <v>53</v>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -2568,7 +2900,9 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="n">
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="n">
         <v>30.71705159757317</v>
       </c>
     </row>
@@ -2585,8 +2919,12 @@
       <c r="D56" t="n">
         <v>54</v>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>54</v>
+      </c>
+      <c r="F56" t="n">
+        <v>54</v>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -2596,7 +2934,9 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="n">
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="n">
         <v>30.40893174766933</v>
       </c>
     </row>
@@ -2610,8 +2950,12 @@
       <c r="C57" t="n">
         <v>55</v>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>55</v>
+      </c>
+      <c r="E57" t="n">
+        <v>55</v>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -2622,7 +2966,9 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="n">
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="n">
         <v>30.00756593430685</v>
       </c>
     </row>
@@ -2636,8 +2982,12 @@
       <c r="C58" t="n">
         <v>56</v>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>56</v>
+      </c>
+      <c r="E58" t="n">
+        <v>56</v>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -2648,7 +2998,9 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
-      <c r="P58" t="n">
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="n">
         <v>29.61517987173261</v>
       </c>
     </row>
@@ -2662,8 +3014,12 @@
       <c r="C59" t="n">
         <v>57</v>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>57</v>
+      </c>
+      <c r="E59" t="n">
+        <v>57</v>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
@@ -2674,7 +3030,9 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
-      <c r="P59" t="n">
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="n">
         <v>28.95441448443535</v>
       </c>
     </row>
@@ -2688,8 +3046,12 @@
       <c r="C60" t="n">
         <v>58</v>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>58</v>
+      </c>
+      <c r="E60" t="n">
+        <v>58</v>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -2700,7 +3062,9 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
-      <c r="P60" t="n">
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="n">
         <v>28.93568544726321</v>
       </c>
     </row>
@@ -2714,8 +3078,12 @@
       <c r="C61" t="n">
         <v>59</v>
       </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>59</v>
+      </c>
+      <c r="E61" t="n">
+        <v>59</v>
+      </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -2726,7 +3094,9 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
-      <c r="P61" t="n">
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="n">
         <v>29.07687113806344</v>
       </c>
     </row>
@@ -2737,8 +3107,12 @@
       <c r="B62" t="n">
         <v>60</v>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="n">
+        <v>60</v>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
@@ -2750,7 +3124,9 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
-      <c r="P62" t="n">
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="n">
         <v>30.66437626656585</v>
       </c>
     </row>
@@ -2761,8 +3137,12 @@
       <c r="B63" t="n">
         <v>61</v>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="n">
+        <v>61</v>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
@@ -2774,7 +3154,9 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
-      <c r="P63" t="n">
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="n">
         <v>29.71554851349543</v>
       </c>
     </row>
@@ -2785,8 +3167,12 @@
       <c r="B64" t="n">
         <v>62</v>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="n">
+        <v>62</v>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2798,7 +3184,9 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
-      <c r="P64" t="n">
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="n">
         <v>29.37691292915611</v>
       </c>
     </row>
@@ -2809,8 +3197,12 @@
       <c r="B65" t="n">
         <v>63</v>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="n">
+        <v>63</v>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
@@ -2822,7 +3214,9 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
-      <c r="P65" t="n">
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="n">
         <v>29.73525220398017</v>
       </c>
     </row>
@@ -2833,8 +3227,12 @@
       <c r="B66" t="n">
         <v>64</v>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="n">
+        <v>64</v>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2846,7 +3244,9 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
-      <c r="P66" t="n">
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="n">
         <v>30.20347400339665</v>
       </c>
     </row>
@@ -2854,8 +3254,12 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
@@ -2868,7 +3272,9 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
-      <c r="P67" t="n">
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="n">
         <v>30.05011065270486</v>
       </c>
     </row>
@@ -2876,8 +3282,12 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
@@ -2890,7 +3300,9 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
-      <c r="P68" t="n">
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="n">
         <v>29.4726120454439</v>
       </c>
     </row>
@@ -2898,8 +3310,12 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
@@ -2912,7 +3328,9 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
-      <c r="P69" t="n">
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="n">
         <v>29.81097643387562</v>
       </c>
     </row>
@@ -2920,8 +3338,12 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
@@ -2934,7 +3356,9 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
-      <c r="P70" t="n">
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="n">
         <v>29.90499743944582</v>
       </c>
     </row>
@@ -2942,8 +3366,12 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
@@ -2956,8 +3384,260 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
-      <c r="P71" t="n">
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="n">
         <v>29.14887020995906</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>30.23977983929086</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>30.38220174290848</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>30.49393445684007</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="n">
+        <v>30.98144420479156</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="n">
+        <v>30.88058823637243</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="n">
+        <v>29.5957914292826</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="n">
+        <v>29.50264458311</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="n">
+        <v>29.43434864315066</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="n">
+        <v>29.30550030120281</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="n">
+        <v>28.88129208329809</v>
       </c>
     </row>
   </sheetData>

--- a/silver_fore.xlsx
+++ b/silver_fore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,85 +436,95 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.16</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.15</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.14</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.13</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">   SILVER_FOR</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>SILVER_FOR</t>
         </is>
@@ -570,9 +580,15 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>27.44466</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -624,9 +640,15 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
         <v>26.933548</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -678,9 +700,15 @@
         <v>2</v>
       </c>
       <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
         <v>27.173124</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -732,9 +760,15 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
         <v>26.856646</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -786,9 +820,15 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
         <v>26.422922</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -836,9 +876,15 @@
       <c r="O7" t="n">
         <v>5</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>30.93059290717292</v>
       </c>
     </row>
@@ -888,9 +934,15 @@
       <c r="O8" t="n">
         <v>6</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
+      <c r="P8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>30.6353459147918</v>
       </c>
     </row>
@@ -940,9 +992,15 @@
       <c r="O9" t="n">
         <v>7</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
+      <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>30.30023174736436</v>
       </c>
     </row>
@@ -992,9 +1050,15 @@
       <c r="O10" t="n">
         <v>8</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="n">
+      <c r="P10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>8</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>29.53532024840348</v>
       </c>
     </row>
@@ -1044,9 +1108,15 @@
       <c r="O11" t="n">
         <v>9</v>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="n">
+      <c r="P11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>29.15916464141611</v>
       </c>
     </row>
@@ -1093,10 +1163,16 @@
       <c r="N12" t="n">
         <v>10</v>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10</v>
+      </c>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="n">
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
         <v>31.76244298992617</v>
       </c>
     </row>
@@ -1143,10 +1219,16 @@
       <c r="N13" t="n">
         <v>11</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>11</v>
+      </c>
+      <c r="P13" t="n">
+        <v>11</v>
+      </c>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="n">
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
         <v>32.23934168175691</v>
       </c>
     </row>
@@ -1193,10 +1275,16 @@
       <c r="N14" t="n">
         <v>12</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>12</v>
+      </c>
+      <c r="P14" t="n">
+        <v>12</v>
+      </c>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="n">
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
         <v>32.5524573182023</v>
       </c>
     </row>
@@ -1243,10 +1331,16 @@
       <c r="N15" t="n">
         <v>13</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>13</v>
+      </c>
+      <c r="P15" t="n">
+        <v>13</v>
+      </c>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="n">
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
         <v>32.38868114596181</v>
       </c>
     </row>
@@ -1293,10 +1387,16 @@
       <c r="N16" t="n">
         <v>14</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>14</v>
+      </c>
+      <c r="P16" t="n">
+        <v>14</v>
+      </c>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="n">
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
         <v>32.10415671664822</v>
       </c>
     </row>
@@ -1340,11 +1440,17 @@
       <c r="M17" t="n">
         <v>15</v>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>15</v>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="n">
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
         <v>28.81685345771996</v>
       </c>
     </row>
@@ -1388,11 +1494,17 @@
       <c r="M18" t="n">
         <v>16</v>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>16</v>
+      </c>
+      <c r="O18" t="n">
+        <v>16</v>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="n">
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
         <v>28.51061683625062</v>
       </c>
     </row>
@@ -1436,11 +1548,17 @@
       <c r="M19" t="n">
         <v>17</v>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>17</v>
+      </c>
+      <c r="O19" t="n">
+        <v>17</v>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="n">
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
         <v>27.67123246313037</v>
       </c>
     </row>
@@ -1484,11 +1602,17 @@
       <c r="M20" t="n">
         <v>18</v>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>18</v>
+      </c>
+      <c r="O20" t="n">
+        <v>18</v>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="n">
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
         <v>27.34084839285276</v>
       </c>
     </row>
@@ -1532,11 +1656,17 @@
       <c r="M21" t="n">
         <v>19</v>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>19</v>
+      </c>
+      <c r="O21" t="n">
+        <v>19</v>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="n">
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="n">
         <v>26.94339908891732</v>
       </c>
     </row>
@@ -1577,12 +1707,18 @@
       <c r="L22" t="n">
         <v>20</v>
       </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>20</v>
+      </c>
+      <c r="N22" t="n">
+        <v>20</v>
+      </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="n">
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="n">
         <v>29.09709106441289</v>
       </c>
     </row>
@@ -1623,12 +1759,18 @@
       <c r="L23" t="n">
         <v>21</v>
       </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>21</v>
+      </c>
+      <c r="N23" t="n">
+        <v>21</v>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="n">
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="n">
         <v>28.96379896414152</v>
       </c>
     </row>
@@ -1669,12 +1811,18 @@
       <c r="L24" t="n">
         <v>22</v>
       </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>22</v>
+      </c>
+      <c r="N24" t="n">
+        <v>22</v>
+      </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="n">
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="n">
         <v>28.94952882821161</v>
       </c>
     </row>
@@ -1715,12 +1863,18 @@
       <c r="L25" t="n">
         <v>23</v>
       </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>23</v>
+      </c>
+      <c r="N25" t="n">
+        <v>23</v>
+      </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="n">
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="n">
         <v>29.52255201468267</v>
       </c>
     </row>
@@ -1761,12 +1915,18 @@
       <c r="L26" t="n">
         <v>24</v>
       </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>24</v>
+      </c>
+      <c r="N26" t="n">
+        <v>24</v>
+      </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="n">
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="n">
         <v>28.89384280964123</v>
       </c>
     </row>
@@ -1804,13 +1964,19 @@
       <c r="K27" t="n">
         <v>25</v>
       </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>25</v>
+      </c>
+      <c r="M27" t="n">
+        <v>25</v>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="n">
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="n">
         <v>28.95396845664823</v>
       </c>
     </row>
@@ -1848,13 +2014,19 @@
       <c r="K28" t="n">
         <v>26</v>
       </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>26</v>
+      </c>
+      <c r="M28" t="n">
+        <v>26</v>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="n">
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
         <v>28.94541683747048</v>
       </c>
     </row>
@@ -1892,13 +2064,19 @@
       <c r="K29" t="n">
         <v>27</v>
       </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>27</v>
+      </c>
+      <c r="M29" t="n">
+        <v>27</v>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="n">
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="n">
         <v>28.70188153581586</v>
       </c>
     </row>
@@ -1936,13 +2114,19 @@
       <c r="K30" t="n">
         <v>28</v>
       </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>28</v>
+      </c>
+      <c r="M30" t="n">
+        <v>28</v>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="n">
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="n">
         <v>27.87425082086361</v>
       </c>
     </row>
@@ -1980,13 +2164,19 @@
       <c r="K31" t="n">
         <v>29</v>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>29</v>
+      </c>
+      <c r="M31" t="n">
+        <v>29</v>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="n">
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="n">
         <v>28.09067066164505</v>
       </c>
     </row>
@@ -2021,14 +2211,20 @@
       <c r="J32" t="n">
         <v>30</v>
       </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>30</v>
+      </c>
+      <c r="L32" t="n">
+        <v>30</v>
+      </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="n">
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="n">
         <v>31.23943548728738</v>
       </c>
     </row>
@@ -2063,14 +2259,20 @@
       <c r="J33" t="n">
         <v>31</v>
       </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>31</v>
+      </c>
+      <c r="L33" t="n">
+        <v>31</v>
+      </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="n">
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="n">
         <v>31.04450482476813</v>
       </c>
     </row>
@@ -2105,14 +2307,20 @@
       <c r="J34" t="n">
         <v>32</v>
       </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>32</v>
+      </c>
+      <c r="L34" t="n">
+        <v>32</v>
+      </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="n">
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="n">
         <v>30.54658087863896</v>
       </c>
     </row>
@@ -2147,14 +2355,20 @@
       <c r="J35" t="n">
         <v>33</v>
       </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>33</v>
+      </c>
+      <c r="L35" t="n">
+        <v>33</v>
+      </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="n">
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="n">
         <v>30.17317577633884</v>
       </c>
     </row>
@@ -2189,14 +2403,20 @@
       <c r="J36" t="n">
         <v>34</v>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>34</v>
+      </c>
+      <c r="L36" t="n">
+        <v>34</v>
+      </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="n">
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="n">
         <v>29.77593984989414</v>
       </c>
     </row>
@@ -2228,15 +2448,21 @@
       <c r="I37" t="n">
         <v>35</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>35</v>
+      </c>
+      <c r="K37" t="n">
+        <v>35</v>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="n">
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="n">
         <v>29.80264645196246</v>
       </c>
     </row>
@@ -2268,15 +2494,21 @@
       <c r="I38" t="n">
         <v>36</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>36</v>
+      </c>
+      <c r="K38" t="n">
+        <v>36</v>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="n">
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="n">
         <v>29.55922128062565</v>
       </c>
     </row>
@@ -2308,15 +2540,21 @@
       <c r="I39" t="n">
         <v>37</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>37</v>
+      </c>
+      <c r="K39" t="n">
+        <v>37</v>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="n">
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="n">
         <v>29.30527315742233</v>
       </c>
     </row>
@@ -2348,15 +2586,21 @@
       <c r="I40" t="n">
         <v>38</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>38</v>
+      </c>
+      <c r="K40" t="n">
+        <v>38</v>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="n">
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="n">
         <v>28.8122954391917</v>
       </c>
     </row>
@@ -2388,15 +2632,21 @@
       <c r="I41" t="n">
         <v>39</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>39</v>
+      </c>
+      <c r="K41" t="n">
+        <v>39</v>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="n">
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="n">
         <v>28.18952363490905</v>
       </c>
     </row>
@@ -2425,8 +2675,12 @@
       <c r="H42" t="n">
         <v>40</v>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>40</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -2434,7 +2688,9 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="n">
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="n">
         <v>30.70601929298681</v>
       </c>
     </row>
@@ -2463,8 +2719,12 @@
       <c r="H43" t="n">
         <v>41</v>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>41</v>
+      </c>
+      <c r="J43" t="n">
+        <v>41</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
@@ -2472,7 +2732,9 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="n">
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="n">
         <v>30.43889270062886</v>
       </c>
     </row>
@@ -2501,8 +2763,12 @@
       <c r="H44" t="n">
         <v>42</v>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>42</v>
+      </c>
+      <c r="J44" t="n">
+        <v>42</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -2510,7 +2776,9 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="n">
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="n">
         <v>30.30290516082914</v>
       </c>
     </row>
@@ -2539,8 +2807,12 @@
       <c r="H45" t="n">
         <v>43</v>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>43</v>
+      </c>
+      <c r="J45" t="n">
+        <v>43</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -2548,7 +2820,9 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="n">
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="n">
         <v>30.37639649853105</v>
       </c>
     </row>
@@ -2577,8 +2851,12 @@
       <c r="H46" t="n">
         <v>44</v>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>44</v>
+      </c>
+      <c r="J46" t="n">
+        <v>44</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -2586,7 +2864,9 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="n">
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="n">
         <v>29.82201011509096</v>
       </c>
     </row>
@@ -2612,8 +2892,12 @@
       <c r="G47" t="n">
         <v>45</v>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>45</v>
+      </c>
+      <c r="I47" t="n">
+        <v>45</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
@@ -2622,7 +2906,9 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="n">
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="n">
         <v>28.05217323242647</v>
       </c>
     </row>
@@ -2648,8 +2934,12 @@
       <c r="G48" t="n">
         <v>46</v>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>46</v>
+      </c>
+      <c r="I48" t="n">
+        <v>46</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -2658,7 +2948,9 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="n">
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="n">
         <v>27.89165416433514</v>
       </c>
     </row>
@@ -2684,8 +2976,12 @@
       <c r="G49" t="n">
         <v>47</v>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>47</v>
+      </c>
+      <c r="I49" t="n">
+        <v>47</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -2694,7 +2990,9 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="n">
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="n">
         <v>28.205499414136</v>
       </c>
     </row>
@@ -2720,8 +3018,12 @@
       <c r="G50" t="n">
         <v>48</v>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>48</v>
+      </c>
+      <c r="I50" t="n">
+        <v>48</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
@@ -2730,7 +3032,9 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="n">
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="n">
         <v>28.41437395151866</v>
       </c>
     </row>
@@ -2756,8 +3060,12 @@
       <c r="G51" t="n">
         <v>49</v>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>49</v>
+      </c>
+      <c r="I51" t="n">
+        <v>49</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
@@ -2766,7 +3074,9 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="n">
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="n">
         <v>28.78275573469779</v>
       </c>
     </row>
@@ -2789,8 +3099,12 @@
       <c r="F52" t="n">
         <v>50</v>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>50</v>
+      </c>
+      <c r="H52" t="n">
+        <v>50</v>
+      </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2800,7 +3114,9 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="n">
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="n">
         <v>31.55722890898164</v>
       </c>
     </row>
@@ -2823,8 +3139,12 @@
       <c r="F53" t="n">
         <v>51</v>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>51</v>
+      </c>
+      <c r="H53" t="n">
+        <v>51</v>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2834,7 +3154,9 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="n">
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="n">
         <v>30.83284674360289</v>
       </c>
     </row>
@@ -2857,8 +3179,12 @@
       <c r="F54" t="n">
         <v>52</v>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>52</v>
+      </c>
+      <c r="H54" t="n">
+        <v>52</v>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2868,7 +3194,9 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="n">
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="n">
         <v>30.74265827309239</v>
       </c>
     </row>
@@ -2891,8 +3219,12 @@
       <c r="F55" t="n">
         <v>53</v>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>53</v>
+      </c>
+      <c r="H55" t="n">
+        <v>53</v>
+      </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2902,7 +3234,9 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="n">
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="n">
         <v>30.71705159757317</v>
       </c>
     </row>
@@ -2925,8 +3259,12 @@
       <c r="F56" t="n">
         <v>54</v>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>54</v>
+      </c>
+      <c r="H56" t="n">
+        <v>54</v>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2936,7 +3274,9 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="n">
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="n">
         <v>30.40893174766933</v>
       </c>
     </row>
@@ -2956,8 +3296,12 @@
       <c r="E57" t="n">
         <v>55</v>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>55</v>
+      </c>
+      <c r="G57" t="n">
+        <v>55</v>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2968,7 +3312,9 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="n">
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="n">
         <v>30.00756593430685</v>
       </c>
     </row>
@@ -2988,8 +3334,12 @@
       <c r="E58" t="n">
         <v>56</v>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>56</v>
+      </c>
+      <c r="G58" t="n">
+        <v>56</v>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -3000,7 +3350,9 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="n">
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="n">
         <v>29.61517987173261</v>
       </c>
     </row>
@@ -3020,8 +3372,12 @@
       <c r="E59" t="n">
         <v>57</v>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>57</v>
+      </c>
+      <c r="G59" t="n">
+        <v>57</v>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -3032,7 +3388,9 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="n">
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="n">
         <v>28.95441448443535</v>
       </c>
     </row>
@@ -3052,8 +3410,12 @@
       <c r="E60" t="n">
         <v>58</v>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>58</v>
+      </c>
+      <c r="G60" t="n">
+        <v>58</v>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -3064,7 +3426,9 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="n">
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="n">
         <v>28.93568544726321</v>
       </c>
     </row>
@@ -3084,8 +3448,12 @@
       <c r="E61" t="n">
         <v>59</v>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>59</v>
+      </c>
+      <c r="G61" t="n">
+        <v>59</v>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -3096,7 +3464,9 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="n">
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="n">
         <v>29.07687113806344</v>
       </c>
     </row>
@@ -3113,8 +3483,12 @@
       <c r="D62" t="n">
         <v>60</v>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>60</v>
+      </c>
+      <c r="F62" t="n">
+        <v>60</v>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -3126,7 +3500,9 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="n">
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="n">
         <v>30.66437626656585</v>
       </c>
     </row>
@@ -3143,8 +3519,12 @@
       <c r="D63" t="n">
         <v>61</v>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>61</v>
+      </c>
+      <c r="F63" t="n">
+        <v>61</v>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -3156,7 +3536,9 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="n">
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="n">
         <v>29.71554851349543</v>
       </c>
     </row>
@@ -3173,8 +3555,12 @@
       <c r="D64" t="n">
         <v>62</v>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>62</v>
+      </c>
+      <c r="F64" t="n">
+        <v>62</v>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -3186,7 +3572,9 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="n">
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="n">
         <v>29.37691292915611</v>
       </c>
     </row>
@@ -3203,8 +3591,12 @@
       <c r="D65" t="n">
         <v>63</v>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>63</v>
+      </c>
+      <c r="F65" t="n">
+        <v>63</v>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -3216,7 +3608,9 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="n">
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="n">
         <v>29.73525220398017</v>
       </c>
     </row>
@@ -3233,8 +3627,12 @@
       <c r="D66" t="n">
         <v>64</v>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>64</v>
+      </c>
+      <c r="F66" t="n">
+        <v>64</v>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -3246,7 +3644,9 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="n">
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="n">
         <v>30.20347400339665</v>
       </c>
     </row>
@@ -3260,8 +3660,12 @@
       <c r="C67" t="n">
         <v>65</v>
       </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>65</v>
+      </c>
+      <c r="E67" t="n">
+        <v>65</v>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
@@ -3274,7 +3678,9 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="n">
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="n">
         <v>30.05011065270486</v>
       </c>
     </row>
@@ -3288,8 +3694,12 @@
       <c r="C68" t="n">
         <v>66</v>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>66</v>
+      </c>
+      <c r="E68" t="n">
+        <v>66</v>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
@@ -3302,7 +3712,9 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="n">
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="n">
         <v>29.4726120454439</v>
       </c>
     </row>
@@ -3316,8 +3728,12 @@
       <c r="C69" t="n">
         <v>67</v>
       </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>67</v>
+      </c>
+      <c r="E69" t="n">
+        <v>67</v>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
@@ -3330,7 +3746,9 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="n">
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="n">
         <v>29.81097643387562</v>
       </c>
     </row>
@@ -3344,8 +3762,12 @@
       <c r="C70" t="n">
         <v>68</v>
       </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>68</v>
+      </c>
+      <c r="E70" t="n">
+        <v>68</v>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
@@ -3358,7 +3780,9 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="n">
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="n">
         <v>29.90499743944582</v>
       </c>
     </row>
@@ -3372,8 +3796,12 @@
       <c r="C71" t="n">
         <v>69</v>
       </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>69</v>
+      </c>
+      <c r="E71" t="n">
+        <v>69</v>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
@@ -3386,7 +3814,9 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="n">
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="n">
         <v>29.14887020995906</v>
       </c>
     </row>
@@ -3397,8 +3827,12 @@
       <c r="B72" t="n">
         <v>70</v>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="n">
+        <v>70</v>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -3412,7 +3846,9 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="n">
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="n">
         <v>30.23977983929086</v>
       </c>
     </row>
@@ -3423,8 +3859,12 @@
       <c r="B73" t="n">
         <v>71</v>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="n">
+        <v>71</v>
+      </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -3438,7 +3878,9 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="n">
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="n">
         <v>30.38220174290848</v>
       </c>
     </row>
@@ -3449,8 +3891,12 @@
       <c r="B74" t="n">
         <v>72</v>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="n">
+        <v>72</v>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
@@ -3464,7 +3910,9 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="n">
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="n">
         <v>30.49393445684007</v>
       </c>
     </row>
@@ -3475,8 +3923,12 @@
       <c r="B75" t="n">
         <v>73</v>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="n">
+        <v>73</v>
+      </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3490,7 +3942,9 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="n">
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="n">
         <v>30.98144420479156</v>
       </c>
     </row>
@@ -3501,8 +3955,12 @@
       <c r="B76" t="n">
         <v>74</v>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="n">
+        <v>74</v>
+      </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
@@ -3516,7 +3974,9 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="n">
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="n">
         <v>30.88058823637243</v>
       </c>
     </row>
@@ -3524,8 +3984,12 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
@@ -3540,7 +4004,9 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="n">
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="n">
         <v>29.5957914292826</v>
       </c>
     </row>
@@ -3548,8 +4014,12 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
@@ -3564,7 +4034,9 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="n">
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="n">
         <v>29.50264458311</v>
       </c>
     </row>
@@ -3572,8 +4044,12 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
@@ -3588,7 +4064,9 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="n">
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="n">
         <v>29.43434864315066</v>
       </c>
     </row>
@@ -3596,8 +4074,12 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
@@ -3612,7 +4094,9 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="n">
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="n">
         <v>29.30550030120281</v>
       </c>
     </row>
@@ -3620,8 +4104,12 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
@@ -3636,8 +4124,280 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="n">
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="n">
         <v>28.88129208329809</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="n">
+        <v>30.46725951723812</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="n">
+        <v>30.30320113605825</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="n">
+        <v>30.33314281621216</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="n">
+        <v>30.25661876488363</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="n">
+        <v>30.87639364789294</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="n">
+        <v>28.66571473944788</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="n">
+        <v>28.8619683424098</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="n">
+        <v>29.76204140378684</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="n">
+        <v>29.70551151165625</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="n">
+        <v>29.53626048599176</v>
       </c>
     </row>
   </sheetData>

--- a/silver_fore.xlsx
+++ b/silver_fore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T91"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,95 +436,105 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.18</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.17</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.16</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.15</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.14</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.13</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">   SILVER_FOR</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>SILVER_FOR</t>
         </is>
@@ -586,9 +596,15 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>27.44466</v>
       </c>
-      <c r="T2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -646,9 +662,15 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
         <v>26.933548</v>
       </c>
-      <c r="T3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -706,9 +728,15 @@
         <v>2</v>
       </c>
       <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
         <v>27.173124</v>
       </c>
-      <c r="T4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -766,9 +794,15 @@
         <v>3</v>
       </c>
       <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
         <v>26.856646</v>
       </c>
-      <c r="T5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -826,9 +860,15 @@
         <v>4</v>
       </c>
       <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
         <v>26.422922</v>
       </c>
-      <c r="T6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -882,9 +922,15 @@
       <c r="Q7" t="n">
         <v>5</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
         <v>30.93059290717292</v>
       </c>
     </row>
@@ -940,9 +986,15 @@
       <c r="Q8" t="n">
         <v>6</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
+      <c r="R8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="n">
         <v>30.6353459147918</v>
       </c>
     </row>
@@ -998,9 +1050,15 @@
       <c r="Q9" t="n">
         <v>7</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
+      <c r="R9" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="n">
         <v>30.30023174736436</v>
       </c>
     </row>
@@ -1056,9 +1114,15 @@
       <c r="Q10" t="n">
         <v>8</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
+      <c r="R10" t="n">
+        <v>8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="n">
         <v>29.53532024840348</v>
       </c>
     </row>
@@ -1114,9 +1178,15 @@
       <c r="Q11" t="n">
         <v>9</v>
       </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
+      <c r="R11" t="n">
+        <v>9</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="n">
         <v>29.15916464141611</v>
       </c>
     </row>
@@ -1169,10 +1239,16 @@
       <c r="P12" t="n">
         <v>10</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" t="n">
+        <v>10</v>
+      </c>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="n">
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="n">
         <v>31.76244298992617</v>
       </c>
     </row>
@@ -1225,10 +1301,16 @@
       <c r="P13" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>11</v>
+      </c>
+      <c r="R13" t="n">
+        <v>11</v>
+      </c>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="n">
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="n">
         <v>32.23934168175691</v>
       </c>
     </row>
@@ -1281,10 +1363,16 @@
       <c r="P14" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>12</v>
+      </c>
+      <c r="R14" t="n">
+        <v>12</v>
+      </c>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="n">
         <v>32.5524573182023</v>
       </c>
     </row>
@@ -1337,10 +1425,16 @@
       <c r="P15" t="n">
         <v>13</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>13</v>
+      </c>
+      <c r="R15" t="n">
+        <v>13</v>
+      </c>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="n">
         <v>32.38868114596181</v>
       </c>
     </row>
@@ -1393,10 +1487,16 @@
       <c r="P16" t="n">
         <v>14</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>14</v>
+      </c>
+      <c r="R16" t="n">
+        <v>14</v>
+      </c>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="n">
         <v>32.10415671664822</v>
       </c>
     </row>
@@ -1446,11 +1546,17 @@
       <c r="O17" t="n">
         <v>15</v>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="P17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>15</v>
+      </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="n">
         <v>28.81685345771996</v>
       </c>
     </row>
@@ -1500,11 +1606,17 @@
       <c r="O18" t="n">
         <v>16</v>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+      <c r="P18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>16</v>
+      </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="n">
         <v>28.51061683625062</v>
       </c>
     </row>
@@ -1554,11 +1666,17 @@
       <c r="O19" t="n">
         <v>17</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+      <c r="P19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>17</v>
+      </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="n">
         <v>27.67123246313037</v>
       </c>
     </row>
@@ -1608,11 +1726,17 @@
       <c r="O20" t="n">
         <v>18</v>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+      <c r="P20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>18</v>
+      </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="n">
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="n">
         <v>27.34084839285276</v>
       </c>
     </row>
@@ -1662,11 +1786,17 @@
       <c r="O21" t="n">
         <v>19</v>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+      <c r="P21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>19</v>
+      </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="n">
         <v>26.94339908891732</v>
       </c>
     </row>
@@ -1713,12 +1843,18 @@
       <c r="N22" t="n">
         <v>20</v>
       </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>20</v>
+      </c>
+      <c r="P22" t="n">
+        <v>20</v>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="n">
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="n">
         <v>29.09709106441289</v>
       </c>
     </row>
@@ -1765,12 +1901,18 @@
       <c r="N23" t="n">
         <v>21</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>21</v>
+      </c>
+      <c r="P23" t="n">
+        <v>21</v>
+      </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="n">
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="n">
         <v>28.96379896414152</v>
       </c>
     </row>
@@ -1817,12 +1959,18 @@
       <c r="N24" t="n">
         <v>22</v>
       </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>22</v>
+      </c>
+      <c r="P24" t="n">
+        <v>22</v>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="n">
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="n">
         <v>28.94952882821161</v>
       </c>
     </row>
@@ -1869,12 +2017,18 @@
       <c r="N25" t="n">
         <v>23</v>
       </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>23</v>
+      </c>
+      <c r="P25" t="n">
+        <v>23</v>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="n">
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="n">
         <v>29.52255201468267</v>
       </c>
     </row>
@@ -1921,12 +2075,18 @@
       <c r="N26" t="n">
         <v>24</v>
       </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>24</v>
+      </c>
+      <c r="P26" t="n">
+        <v>24</v>
+      </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="n">
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="n">
         <v>28.89384280964123</v>
       </c>
     </row>
@@ -1970,13 +2130,19 @@
       <c r="M27" t="n">
         <v>25</v>
       </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>25</v>
+      </c>
+      <c r="O27" t="n">
+        <v>25</v>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="n">
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="n">
         <v>28.95396845664823</v>
       </c>
     </row>
@@ -2020,13 +2186,19 @@
       <c r="M28" t="n">
         <v>26</v>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>26</v>
+      </c>
+      <c r="O28" t="n">
+        <v>26</v>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="n">
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="n">
         <v>28.94541683747048</v>
       </c>
     </row>
@@ -2070,13 +2242,19 @@
       <c r="M29" t="n">
         <v>27</v>
       </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>27</v>
+      </c>
+      <c r="O29" t="n">
+        <v>27</v>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="n">
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="n">
         <v>28.70188153581586</v>
       </c>
     </row>
@@ -2120,13 +2298,19 @@
       <c r="M30" t="n">
         <v>28</v>
       </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>28</v>
+      </c>
+      <c r="O30" t="n">
+        <v>28</v>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="n">
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="n">
         <v>27.87425082086361</v>
       </c>
     </row>
@@ -2170,13 +2354,19 @@
       <c r="M31" t="n">
         <v>29</v>
       </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>29</v>
+      </c>
+      <c r="O31" t="n">
+        <v>29</v>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="n">
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="n">
         <v>28.09067066164505</v>
       </c>
     </row>
@@ -2217,14 +2407,20 @@
       <c r="L32" t="n">
         <v>30</v>
       </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>30</v>
+      </c>
+      <c r="N32" t="n">
+        <v>30</v>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="n">
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="n">
         <v>31.23943548728738</v>
       </c>
     </row>
@@ -2265,14 +2461,20 @@
       <c r="L33" t="n">
         <v>31</v>
       </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>31</v>
+      </c>
+      <c r="N33" t="n">
+        <v>31</v>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="n">
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="n">
         <v>31.04450482476813</v>
       </c>
     </row>
@@ -2313,14 +2515,20 @@
       <c r="L34" t="n">
         <v>32</v>
       </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>32</v>
+      </c>
+      <c r="N34" t="n">
+        <v>32</v>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="n">
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="n">
         <v>30.54658087863896</v>
       </c>
     </row>
@@ -2361,14 +2569,20 @@
       <c r="L35" t="n">
         <v>33</v>
       </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>33</v>
+      </c>
+      <c r="N35" t="n">
+        <v>33</v>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="n">
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="n">
         <v>30.17317577633884</v>
       </c>
     </row>
@@ -2409,14 +2623,20 @@
       <c r="L36" t="n">
         <v>34</v>
       </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>34</v>
+      </c>
+      <c r="N36" t="n">
+        <v>34</v>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="n">
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
         <v>29.77593984989414</v>
       </c>
     </row>
@@ -2454,15 +2674,21 @@
       <c r="K37" t="n">
         <v>35</v>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>35</v>
+      </c>
+      <c r="M37" t="n">
+        <v>35</v>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
-      <c r="T37" t="n">
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="n">
         <v>29.80264645196246</v>
       </c>
     </row>
@@ -2500,15 +2726,21 @@
       <c r="K38" t="n">
         <v>36</v>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>36</v>
+      </c>
+      <c r="M38" t="n">
+        <v>36</v>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
-      <c r="T38" t="n">
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="n">
         <v>29.55922128062565</v>
       </c>
     </row>
@@ -2546,15 +2778,21 @@
       <c r="K39" t="n">
         <v>37</v>
       </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>37</v>
+      </c>
+      <c r="M39" t="n">
+        <v>37</v>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
-      <c r="T39" t="n">
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="n">
         <v>29.30527315742233</v>
       </c>
     </row>
@@ -2592,15 +2830,21 @@
       <c r="K40" t="n">
         <v>38</v>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>38</v>
+      </c>
+      <c r="M40" t="n">
+        <v>38</v>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="n">
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="n">
         <v>28.8122954391917</v>
       </c>
     </row>
@@ -2638,15 +2882,21 @@
       <c r="K41" t="n">
         <v>39</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>39</v>
+      </c>
+      <c r="M41" t="n">
+        <v>39</v>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="n">
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="n">
         <v>28.18952363490905</v>
       </c>
     </row>
@@ -2681,8 +2931,12 @@
       <c r="J42" t="n">
         <v>40</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>40</v>
+      </c>
+      <c r="L42" t="n">
+        <v>40</v>
+      </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -2690,7 +2944,9 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
-      <c r="T42" t="n">
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="n">
         <v>30.70601929298681</v>
       </c>
     </row>
@@ -2725,8 +2981,12 @@
       <c r="J43" t="n">
         <v>41</v>
       </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>41</v>
+      </c>
+      <c r="L43" t="n">
+        <v>41</v>
+      </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -2734,7 +2994,9 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
-      <c r="T43" t="n">
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="n">
         <v>30.43889270062886</v>
       </c>
     </row>
@@ -2769,8 +3031,12 @@
       <c r="J44" t="n">
         <v>42</v>
       </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>42</v>
+      </c>
+      <c r="L44" t="n">
+        <v>42</v>
+      </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -2778,7 +3044,9 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="n">
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="n">
         <v>30.30290516082914</v>
       </c>
     </row>
@@ -2813,8 +3081,12 @@
       <c r="J45" t="n">
         <v>43</v>
       </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>43</v>
+      </c>
+      <c r="L45" t="n">
+        <v>43</v>
+      </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -2822,7 +3094,9 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
-      <c r="T45" t="n">
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="n">
         <v>30.37639649853105</v>
       </c>
     </row>
@@ -2857,8 +3131,12 @@
       <c r="J46" t="n">
         <v>44</v>
       </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>44</v>
+      </c>
+      <c r="L46" t="n">
+        <v>44</v>
+      </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -2866,7 +3144,9 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
-      <c r="T46" t="n">
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="n">
         <v>29.82201011509096</v>
       </c>
     </row>
@@ -2898,8 +3178,12 @@
       <c r="I47" t="n">
         <v>45</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>45</v>
+      </c>
+      <c r="K47" t="n">
+        <v>45</v>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -2908,7 +3192,9 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
-      <c r="T47" t="n">
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="n">
         <v>28.05217323242647</v>
       </c>
     </row>
@@ -2940,8 +3226,12 @@
       <c r="I48" t="n">
         <v>46</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>46</v>
+      </c>
+      <c r="K48" t="n">
+        <v>46</v>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
@@ -2950,7 +3240,9 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
-      <c r="T48" t="n">
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="n">
         <v>27.89165416433514</v>
       </c>
     </row>
@@ -2982,8 +3274,12 @@
       <c r="I49" t="n">
         <v>47</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>47</v>
+      </c>
+      <c r="K49" t="n">
+        <v>47</v>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -2992,7 +3288,9 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
-      <c r="T49" t="n">
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="n">
         <v>28.205499414136</v>
       </c>
     </row>
@@ -3024,8 +3322,12 @@
       <c r="I50" t="n">
         <v>48</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>48</v>
+      </c>
+      <c r="K50" t="n">
+        <v>48</v>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -3034,7 +3336,9 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
-      <c r="T50" t="n">
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="n">
         <v>28.41437395151866</v>
       </c>
     </row>
@@ -3066,8 +3370,12 @@
       <c r="I51" t="n">
         <v>49</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>49</v>
+      </c>
+      <c r="K51" t="n">
+        <v>49</v>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -3076,7 +3384,9 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="n">
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="n">
         <v>28.78275573469779</v>
       </c>
     </row>
@@ -3105,8 +3415,12 @@
       <c r="H52" t="n">
         <v>50</v>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>50</v>
+      </c>
+      <c r="J52" t="n">
+        <v>50</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3116,7 +3430,9 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
-      <c r="T52" t="n">
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="n">
         <v>31.55722890898164</v>
       </c>
     </row>
@@ -3145,8 +3461,12 @@
       <c r="H53" t="n">
         <v>51</v>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
+        <v>51</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -3156,7 +3476,9 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
-      <c r="T53" t="n">
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="n">
         <v>30.83284674360289</v>
       </c>
     </row>
@@ -3185,8 +3507,12 @@
       <c r="H54" t="n">
         <v>52</v>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>52</v>
+      </c>
+      <c r="J54" t="n">
+        <v>52</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3196,7 +3522,9 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
-      <c r="T54" t="n">
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="n">
         <v>30.74265827309239</v>
       </c>
     </row>
@@ -3225,8 +3553,12 @@
       <c r="H55" t="n">
         <v>53</v>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>53</v>
+      </c>
+      <c r="J55" t="n">
+        <v>53</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3236,7 +3568,9 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
-      <c r="T55" t="n">
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="n">
         <v>30.71705159757317</v>
       </c>
     </row>
@@ -3265,8 +3599,12 @@
       <c r="H56" t="n">
         <v>54</v>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>54</v>
+      </c>
+      <c r="J56" t="n">
+        <v>54</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -3276,7 +3614,9 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
-      <c r="T56" t="n">
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="n">
         <v>30.40893174766933</v>
       </c>
     </row>
@@ -3302,8 +3642,12 @@
       <c r="G57" t="n">
         <v>55</v>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>55</v>
+      </c>
+      <c r="I57" t="n">
+        <v>55</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -3314,7 +3658,9 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
-      <c r="T57" t="n">
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="n">
         <v>30.00756593430685</v>
       </c>
     </row>
@@ -3340,8 +3686,12 @@
       <c r="G58" t="n">
         <v>56</v>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>56</v>
+      </c>
+      <c r="I58" t="n">
+        <v>56</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -3352,7 +3702,9 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
-      <c r="T58" t="n">
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="n">
         <v>29.61517987173261</v>
       </c>
     </row>
@@ -3378,8 +3730,12 @@
       <c r="G59" t="n">
         <v>57</v>
       </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>57</v>
+      </c>
+      <c r="I59" t="n">
+        <v>57</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
@@ -3390,7 +3746,9 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
-      <c r="T59" t="n">
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="n">
         <v>28.95441448443535</v>
       </c>
     </row>
@@ -3416,8 +3774,12 @@
       <c r="G60" t="n">
         <v>58</v>
       </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>58</v>
+      </c>
+      <c r="I60" t="n">
+        <v>58</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
@@ -3428,7 +3790,9 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
-      <c r="T60" t="n">
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="n">
         <v>28.93568544726321</v>
       </c>
     </row>
@@ -3454,8 +3818,12 @@
       <c r="G61" t="n">
         <v>59</v>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>59</v>
+      </c>
+      <c r="I61" t="n">
+        <v>59</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
@@ -3466,7 +3834,9 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
-      <c r="T61" t="n">
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="n">
         <v>29.07687113806344</v>
       </c>
     </row>
@@ -3489,8 +3859,12 @@
       <c r="F62" t="n">
         <v>60</v>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>60</v>
+      </c>
+      <c r="H62" t="n">
+        <v>60</v>
+      </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -3502,7 +3876,9 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
-      <c r="T62" t="n">
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="n">
         <v>30.66437626656585</v>
       </c>
     </row>
@@ -3525,8 +3901,12 @@
       <c r="F63" t="n">
         <v>61</v>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>61</v>
+      </c>
+      <c r="H63" t="n">
+        <v>61</v>
+      </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -3538,7 +3918,9 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
-      <c r="T63" t="n">
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="n">
         <v>29.71554851349543</v>
       </c>
     </row>
@@ -3561,8 +3943,12 @@
       <c r="F64" t="n">
         <v>62</v>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>62</v>
+      </c>
+      <c r="H64" t="n">
+        <v>62</v>
+      </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -3574,7 +3960,9 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
-      <c r="T64" t="n">
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="n">
         <v>29.37691292915611</v>
       </c>
     </row>
@@ -3597,8 +3985,12 @@
       <c r="F65" t="n">
         <v>63</v>
       </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>63</v>
+      </c>
+      <c r="H65" t="n">
+        <v>63</v>
+      </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -3610,7 +4002,9 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
-      <c r="T65" t="n">
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="n">
         <v>29.73525220398017</v>
       </c>
     </row>
@@ -3633,8 +4027,12 @@
       <c r="F66" t="n">
         <v>64</v>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>64</v>
+      </c>
+      <c r="H66" t="n">
+        <v>64</v>
+      </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -3646,7 +4044,9 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
-      <c r="T66" t="n">
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="n">
         <v>30.20347400339665</v>
       </c>
     </row>
@@ -3666,8 +4066,12 @@
       <c r="E67" t="n">
         <v>65</v>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>65</v>
+      </c>
+      <c r="G67" t="n">
+        <v>65</v>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3680,7 +4084,9 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
-      <c r="T67" t="n">
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="n">
         <v>30.05011065270486</v>
       </c>
     </row>
@@ -3700,8 +4106,12 @@
       <c r="E68" t="n">
         <v>66</v>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>66</v>
+      </c>
+      <c r="G68" t="n">
+        <v>66</v>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3714,7 +4124,9 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
-      <c r="T68" t="n">
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="n">
         <v>29.4726120454439</v>
       </c>
     </row>
@@ -3734,8 +4146,12 @@
       <c r="E69" t="n">
         <v>67</v>
       </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>67</v>
+      </c>
+      <c r="G69" t="n">
+        <v>67</v>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3748,7 +4164,9 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
-      <c r="T69" t="n">
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="n">
         <v>29.81097643387562</v>
       </c>
     </row>
@@ -3768,8 +4186,12 @@
       <c r="E70" t="n">
         <v>68</v>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>68</v>
+      </c>
+      <c r="G70" t="n">
+        <v>68</v>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3782,7 +4204,9 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
-      <c r="T70" t="n">
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="n">
         <v>29.90499743944582</v>
       </c>
     </row>
@@ -3802,8 +4226,12 @@
       <c r="E71" t="n">
         <v>69</v>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>69</v>
+      </c>
+      <c r="G71" t="n">
+        <v>69</v>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3816,7 +4244,9 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
-      <c r="T71" t="n">
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="n">
         <v>29.14887020995906</v>
       </c>
     </row>
@@ -3833,8 +4263,12 @@
       <c r="D72" t="n">
         <v>70</v>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>70</v>
+      </c>
+      <c r="F72" t="n">
+        <v>70</v>
+      </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
@@ -3848,7 +4282,9 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
-      <c r="T72" t="n">
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="n">
         <v>30.23977983929086</v>
       </c>
     </row>
@@ -3865,8 +4301,12 @@
       <c r="D73" t="n">
         <v>71</v>
       </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>71</v>
+      </c>
+      <c r="F73" t="n">
+        <v>71</v>
+      </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -3880,7 +4320,9 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
-      <c r="T73" t="n">
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="n">
         <v>30.38220174290848</v>
       </c>
     </row>
@@ -3897,8 +4339,12 @@
       <c r="D74" t="n">
         <v>72</v>
       </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>72</v>
+      </c>
+      <c r="F74" t="n">
+        <v>72</v>
+      </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -3912,7 +4358,9 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
-      <c r="T74" t="n">
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="n">
         <v>30.49393445684007</v>
       </c>
     </row>
@@ -3929,8 +4377,12 @@
       <c r="D75" t="n">
         <v>73</v>
       </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>73</v>
+      </c>
+      <c r="F75" t="n">
+        <v>73</v>
+      </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
@@ -3944,7 +4396,9 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
-      <c r="T75" t="n">
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="n">
         <v>30.98144420479156</v>
       </c>
     </row>
@@ -3961,8 +4415,12 @@
       <c r="D76" t="n">
         <v>74</v>
       </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>74</v>
+      </c>
+      <c r="F76" t="n">
+        <v>74</v>
+      </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -3976,7 +4434,9 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
-      <c r="T76" t="n">
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="n">
         <v>30.88058823637243</v>
       </c>
     </row>
@@ -3990,8 +4450,12 @@
       <c r="C77" t="n">
         <v>75</v>
       </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="D77" t="n">
+        <v>75</v>
+      </c>
+      <c r="E77" t="n">
+        <v>75</v>
+      </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -4006,7 +4470,9 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
-      <c r="T77" t="n">
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="n">
         <v>29.5957914292826</v>
       </c>
     </row>
@@ -4020,8 +4486,12 @@
       <c r="C78" t="n">
         <v>76</v>
       </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="D78" t="n">
+        <v>76</v>
+      </c>
+      <c r="E78" t="n">
+        <v>76</v>
+      </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
@@ -4036,7 +4506,9 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
-      <c r="T78" t="n">
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="n">
         <v>29.50264458311</v>
       </c>
     </row>
@@ -4050,8 +4522,12 @@
       <c r="C79" t="n">
         <v>77</v>
       </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>77</v>
+      </c>
+      <c r="E79" t="n">
+        <v>77</v>
+      </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
@@ -4066,7 +4542,9 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
-      <c r="T79" t="n">
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="n">
         <v>29.43434864315066</v>
       </c>
     </row>
@@ -4080,8 +4558,12 @@
       <c r="C80" t="n">
         <v>78</v>
       </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>78</v>
+      </c>
+      <c r="E80" t="n">
+        <v>78</v>
+      </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
@@ -4096,7 +4578,9 @@
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
-      <c r="T80" t="n">
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="n">
         <v>29.30550030120281</v>
       </c>
     </row>
@@ -4110,8 +4594,12 @@
       <c r="C81" t="n">
         <v>79</v>
       </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>79</v>
+      </c>
+      <c r="E81" t="n">
+        <v>79</v>
+      </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -4126,7 +4614,9 @@
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
-      <c r="T81" t="n">
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="n">
         <v>28.88129208329809</v>
       </c>
     </row>
@@ -4137,8 +4627,12 @@
       <c r="B82" t="n">
         <v>80</v>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="n">
+        <v>80</v>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -4154,7 +4648,9 @@
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
-      <c r="T82" t="n">
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="n">
         <v>30.46725951723812</v>
       </c>
     </row>
@@ -4165,8 +4661,12 @@
       <c r="B83" t="n">
         <v>81</v>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="n">
+        <v>81</v>
+      </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
@@ -4182,7 +4682,9 @@
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
-      <c r="T83" t="n">
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="n">
         <v>30.30320113605825</v>
       </c>
     </row>
@@ -4193,8 +4695,12 @@
       <c r="B84" t="n">
         <v>82</v>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="n">
+        <v>82</v>
+      </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -4210,7 +4716,9 @@
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
-      <c r="T84" t="n">
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="n">
         <v>30.33314281621216</v>
       </c>
     </row>
@@ -4221,8 +4729,12 @@
       <c r="B85" t="n">
         <v>83</v>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="n">
+        <v>83</v>
+      </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
@@ -4238,7 +4750,9 @@
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
-      <c r="T85" t="n">
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="n">
         <v>30.25661876488363</v>
       </c>
     </row>
@@ -4249,8 +4763,12 @@
       <c r="B86" t="n">
         <v>84</v>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="n">
+        <v>84</v>
+      </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
@@ -4266,7 +4784,9 @@
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
-      <c r="T86" t="n">
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="n">
         <v>30.87639364789294</v>
       </c>
     </row>
@@ -4274,8 +4794,12 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
@@ -4292,7 +4816,9 @@
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
-      <c r="T87" t="n">
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="n">
         <v>28.66571473944788</v>
       </c>
     </row>
@@ -4300,8 +4826,12 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
@@ -4318,7 +4848,9 @@
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
-      <c r="T88" t="n">
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="n">
         <v>28.8619683424098</v>
       </c>
     </row>
@@ -4326,8 +4858,12 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
@@ -4344,7 +4880,9 @@
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
-      <c r="T89" t="n">
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="n">
         <v>29.76204140378684</v>
       </c>
     </row>
@@ -4352,8 +4890,12 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
@@ -4370,7 +4912,9 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
-      <c r="T90" t="n">
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="n">
         <v>29.70551151165625</v>
       </c>
     </row>
@@ -4378,8 +4922,12 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
@@ -4396,8 +4944,300 @@
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
-      <c r="T91" t="n">
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="n">
         <v>29.53626048599176</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="n">
+        <v>31.81960475475518</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="n">
+        <v>31.37961348567967</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="n">
+        <v>30.52227511749885</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="n">
+        <v>30.01177979559196</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="n">
+        <v>29.68068125487758</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="n">
+        <v>28.48524969417264</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="n">
+        <v>28.19800917589612</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="n">
+        <v>28.07364451451201</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="n">
+        <v>27.45626358928604</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="n">
+        <v>27.082753863184</v>
       </c>
     </row>
   </sheetData>

--- a/silver_fore.xlsx
+++ b/silver_fore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:X111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,105 +436,115 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.20</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.19</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.18</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.17</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.16</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.15</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.14</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.13</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">   SILVER_FOR</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>SILVER_FOR</t>
         </is>
@@ -602,9 +612,15 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>27.44466</v>
       </c>
-      <c r="V2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -668,9 +684,15 @@
         <v>1</v>
       </c>
       <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
         <v>26.933548</v>
       </c>
-      <c r="V3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -734,9 +756,15 @@
         <v>2</v>
       </c>
       <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
         <v>27.173124</v>
       </c>
-      <c r="V4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -800,9 +828,15 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" t="n">
         <v>26.856646</v>
       </c>
-      <c r="V5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -866,9 +900,15 @@
         <v>4</v>
       </c>
       <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W6" t="n">
         <v>26.422922</v>
       </c>
-      <c r="V6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -928,9 +968,15 @@
       <c r="S7" t="n">
         <v>5</v>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
+      <c r="T7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
         <v>30.93059290717292</v>
       </c>
     </row>
@@ -992,9 +1038,15 @@
       <c r="S8" t="n">
         <v>6</v>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="n">
+      <c r="T8" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="n">
         <v>30.6353459147918</v>
       </c>
     </row>
@@ -1056,9 +1108,15 @@
       <c r="S9" t="n">
         <v>7</v>
       </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="n">
+      <c r="T9" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>7</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="n">
         <v>30.30023174736436</v>
       </c>
     </row>
@@ -1120,9 +1178,15 @@
       <c r="S10" t="n">
         <v>8</v>
       </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="n">
+      <c r="T10" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="n">
         <v>29.53532024840348</v>
       </c>
     </row>
@@ -1184,9 +1248,15 @@
       <c r="S11" t="n">
         <v>9</v>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="n">
+      <c r="T11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>9</v>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="n">
         <v>29.15916464141611</v>
       </c>
     </row>
@@ -1245,10 +1315,16 @@
       <c r="R12" t="n">
         <v>10</v>
       </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="n">
+        <v>10</v>
+      </c>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="n">
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="n">
         <v>31.76244298992617</v>
       </c>
     </row>
@@ -1307,10 +1383,16 @@
       <c r="R13" t="n">
         <v>11</v>
       </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>11</v>
+      </c>
+      <c r="T13" t="n">
+        <v>11</v>
+      </c>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="n">
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="n">
         <v>32.23934168175691</v>
       </c>
     </row>
@@ -1369,10 +1451,16 @@
       <c r="R14" t="n">
         <v>12</v>
       </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>12</v>
+      </c>
+      <c r="T14" t="n">
+        <v>12</v>
+      </c>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="n">
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="n">
         <v>32.5524573182023</v>
       </c>
     </row>
@@ -1431,10 +1519,16 @@
       <c r="R15" t="n">
         <v>13</v>
       </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>13</v>
+      </c>
+      <c r="T15" t="n">
+        <v>13</v>
+      </c>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="n">
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="n">
         <v>32.38868114596181</v>
       </c>
     </row>
@@ -1493,10 +1587,16 @@
       <c r="R16" t="n">
         <v>14</v>
       </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>14</v>
+      </c>
+      <c r="T16" t="n">
+        <v>14</v>
+      </c>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="n">
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="n">
         <v>32.10415671664822</v>
       </c>
     </row>
@@ -1552,11 +1652,17 @@
       <c r="Q17" t="n">
         <v>15</v>
       </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>15</v>
+      </c>
+      <c r="S17" t="n">
+        <v>15</v>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="n">
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="n">
         <v>28.81685345771996</v>
       </c>
     </row>
@@ -1612,11 +1718,17 @@
       <c r="Q18" t="n">
         <v>16</v>
       </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>16</v>
+      </c>
+      <c r="S18" t="n">
+        <v>16</v>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="n">
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="n">
         <v>28.51061683625062</v>
       </c>
     </row>
@@ -1672,11 +1784,17 @@
       <c r="Q19" t="n">
         <v>17</v>
       </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>17</v>
+      </c>
+      <c r="S19" t="n">
+        <v>17</v>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="n">
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
         <v>27.67123246313037</v>
       </c>
     </row>
@@ -1732,11 +1850,17 @@
       <c r="Q20" t="n">
         <v>18</v>
       </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>18</v>
+      </c>
+      <c r="S20" t="n">
+        <v>18</v>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="n">
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
         <v>27.34084839285276</v>
       </c>
     </row>
@@ -1792,11 +1916,17 @@
       <c r="Q21" t="n">
         <v>19</v>
       </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>19</v>
+      </c>
+      <c r="S21" t="n">
+        <v>19</v>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="n">
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="n">
         <v>26.94339908891732</v>
       </c>
     </row>
@@ -1849,12 +1979,18 @@
       <c r="P22" t="n">
         <v>20</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>20</v>
+      </c>
+      <c r="R22" t="n">
+        <v>20</v>
+      </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="n">
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="n">
         <v>29.09709106441289</v>
       </c>
     </row>
@@ -1907,12 +2043,18 @@
       <c r="P23" t="n">
         <v>21</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>21</v>
+      </c>
+      <c r="R23" t="n">
+        <v>21</v>
+      </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="n">
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="n">
         <v>28.96379896414152</v>
       </c>
     </row>
@@ -1965,12 +2107,18 @@
       <c r="P24" t="n">
         <v>22</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>22</v>
+      </c>
+      <c r="R24" t="n">
+        <v>22</v>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="n">
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="n">
         <v>28.94952882821161</v>
       </c>
     </row>
@@ -2023,12 +2171,18 @@
       <c r="P25" t="n">
         <v>23</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>23</v>
+      </c>
+      <c r="R25" t="n">
+        <v>23</v>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="n">
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="n">
         <v>29.52255201468267</v>
       </c>
     </row>
@@ -2081,12 +2235,18 @@
       <c r="P26" t="n">
         <v>24</v>
       </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>24</v>
+      </c>
+      <c r="R26" t="n">
+        <v>24</v>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="n">
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="n">
         <v>28.89384280964123</v>
       </c>
     </row>
@@ -2136,13 +2296,19 @@
       <c r="O27" t="n">
         <v>25</v>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+      <c r="P27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>25</v>
+      </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="n">
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="n">
         <v>28.95396845664823</v>
       </c>
     </row>
@@ -2192,13 +2358,19 @@
       <c r="O28" t="n">
         <v>26</v>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
+      <c r="P28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>26</v>
+      </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="n">
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="n">
         <v>28.94541683747048</v>
       </c>
     </row>
@@ -2248,13 +2420,19 @@
       <c r="O29" t="n">
         <v>27</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
+      <c r="P29" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>27</v>
+      </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="n">
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="n">
         <v>28.70188153581586</v>
       </c>
     </row>
@@ -2304,13 +2482,19 @@
       <c r="O30" t="n">
         <v>28</v>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="P30" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>28</v>
+      </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="n">
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="n">
         <v>27.87425082086361</v>
       </c>
     </row>
@@ -2360,13 +2544,19 @@
       <c r="O31" t="n">
         <v>29</v>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
+      <c r="P31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>29</v>
+      </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="n">
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="n">
         <v>28.09067066164505</v>
       </c>
     </row>
@@ -2413,14 +2603,20 @@
       <c r="N32" t="n">
         <v>30</v>
       </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>30</v>
+      </c>
+      <c r="P32" t="n">
+        <v>30</v>
+      </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="n">
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="n">
         <v>31.23943548728738</v>
       </c>
     </row>
@@ -2467,14 +2663,20 @@
       <c r="N33" t="n">
         <v>31</v>
       </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="O33" t="n">
+        <v>31</v>
+      </c>
+      <c r="P33" t="n">
+        <v>31</v>
+      </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="n">
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="n">
         <v>31.04450482476813</v>
       </c>
     </row>
@@ -2521,14 +2723,20 @@
       <c r="N34" t="n">
         <v>32</v>
       </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>32</v>
+      </c>
+      <c r="P34" t="n">
+        <v>32</v>
+      </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="n">
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="n">
         <v>30.54658087863896</v>
       </c>
     </row>
@@ -2575,14 +2783,20 @@
       <c r="N35" t="n">
         <v>33</v>
       </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>33</v>
+      </c>
+      <c r="P35" t="n">
+        <v>33</v>
+      </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="n">
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="n">
         <v>30.17317577633884</v>
       </c>
     </row>
@@ -2629,14 +2843,20 @@
       <c r="N36" t="n">
         <v>34</v>
       </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>34</v>
+      </c>
+      <c r="P36" t="n">
+        <v>34</v>
+      </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="n">
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
         <v>29.77593984989414</v>
       </c>
     </row>
@@ -2680,15 +2900,21 @@
       <c r="M37" t="n">
         <v>35</v>
       </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>35</v>
+      </c>
+      <c r="O37" t="n">
+        <v>35</v>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="n">
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="n">
         <v>29.80264645196246</v>
       </c>
     </row>
@@ -2732,15 +2958,21 @@
       <c r="M38" t="n">
         <v>36</v>
       </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>36</v>
+      </c>
+      <c r="O38" t="n">
+        <v>36</v>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="n">
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="n">
         <v>29.55922128062565</v>
       </c>
     </row>
@@ -2784,15 +3016,21 @@
       <c r="M39" t="n">
         <v>37</v>
       </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="N39" t="n">
+        <v>37</v>
+      </c>
+      <c r="O39" t="n">
+        <v>37</v>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="n">
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="n">
         <v>29.30527315742233</v>
       </c>
     </row>
@@ -2836,15 +3074,21 @@
       <c r="M40" t="n">
         <v>38</v>
       </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="N40" t="n">
+        <v>38</v>
+      </c>
+      <c r="O40" t="n">
+        <v>38</v>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="n">
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="n">
         <v>28.8122954391917</v>
       </c>
     </row>
@@ -2888,15 +3132,21 @@
       <c r="M41" t="n">
         <v>39</v>
       </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="N41" t="n">
+        <v>39</v>
+      </c>
+      <c r="O41" t="n">
+        <v>39</v>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="n">
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="n">
         <v>28.18952363490905</v>
       </c>
     </row>
@@ -2937,8 +3187,12 @@
       <c r="L42" t="n">
         <v>40</v>
       </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>40</v>
+      </c>
+      <c r="N42" t="n">
+        <v>40</v>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -2946,7 +3200,9 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="n">
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="n">
         <v>30.70601929298681</v>
       </c>
     </row>
@@ -2987,8 +3243,12 @@
       <c r="L43" t="n">
         <v>41</v>
       </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>41</v>
+      </c>
+      <c r="N43" t="n">
+        <v>41</v>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -2996,7 +3256,9 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="n">
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="n">
         <v>30.43889270062886</v>
       </c>
     </row>
@@ -3037,8 +3299,12 @@
       <c r="L44" t="n">
         <v>42</v>
       </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>42</v>
+      </c>
+      <c r="N44" t="n">
+        <v>42</v>
+      </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
@@ -3046,7 +3312,9 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="n">
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="n">
         <v>30.30290516082914</v>
       </c>
     </row>
@@ -3087,8 +3355,12 @@
       <c r="L45" t="n">
         <v>43</v>
       </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>43</v>
+      </c>
+      <c r="N45" t="n">
+        <v>43</v>
+      </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
@@ -3096,7 +3368,9 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="n">
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="n">
         <v>30.37639649853105</v>
       </c>
     </row>
@@ -3137,8 +3411,12 @@
       <c r="L46" t="n">
         <v>44</v>
       </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>44</v>
+      </c>
+      <c r="N46" t="n">
+        <v>44</v>
+      </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
@@ -3146,7 +3424,9 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="n">
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="n">
         <v>29.82201011509096</v>
       </c>
     </row>
@@ -3184,8 +3464,12 @@
       <c r="K47" t="n">
         <v>45</v>
       </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>45</v>
+      </c>
+      <c r="M47" t="n">
+        <v>45</v>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
@@ -3194,7 +3478,9 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="n">
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="n">
         <v>28.05217323242647</v>
       </c>
     </row>
@@ -3232,8 +3518,12 @@
       <c r="K48" t="n">
         <v>46</v>
       </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>46</v>
+      </c>
+      <c r="M48" t="n">
+        <v>46</v>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
@@ -3242,7 +3532,9 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="n">
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="n">
         <v>27.89165416433514</v>
       </c>
     </row>
@@ -3280,8 +3572,12 @@
       <c r="K49" t="n">
         <v>47</v>
       </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>47</v>
+      </c>
+      <c r="M49" t="n">
+        <v>47</v>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
@@ -3290,7 +3586,9 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="n">
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="n">
         <v>28.205499414136</v>
       </c>
     </row>
@@ -3328,8 +3626,12 @@
       <c r="K50" t="n">
         <v>48</v>
       </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>48</v>
+      </c>
+      <c r="M50" t="n">
+        <v>48</v>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
@@ -3338,7 +3640,9 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="n">
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="n">
         <v>28.41437395151866</v>
       </c>
     </row>
@@ -3376,8 +3680,12 @@
       <c r="K51" t="n">
         <v>49</v>
       </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>49</v>
+      </c>
+      <c r="M51" t="n">
+        <v>49</v>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
@@ -3386,7 +3694,9 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="n">
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="n">
         <v>28.78275573469779</v>
       </c>
     </row>
@@ -3421,8 +3731,12 @@
       <c r="J52" t="n">
         <v>50</v>
       </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>50</v>
+      </c>
+      <c r="L52" t="n">
+        <v>50</v>
+      </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -3432,7 +3746,9 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="n">
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="n">
         <v>31.55722890898164</v>
       </c>
     </row>
@@ -3467,8 +3783,12 @@
       <c r="J53" t="n">
         <v>51</v>
       </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>51</v>
+      </c>
+      <c r="L53" t="n">
+        <v>51</v>
+      </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -3478,7 +3798,9 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="n">
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="n">
         <v>30.83284674360289</v>
       </c>
     </row>
@@ -3513,8 +3835,12 @@
       <c r="J54" t="n">
         <v>52</v>
       </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>52</v>
+      </c>
+      <c r="L54" t="n">
+        <v>52</v>
+      </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -3524,7 +3850,9 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="n">
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="n">
         <v>30.74265827309239</v>
       </c>
     </row>
@@ -3559,8 +3887,12 @@
       <c r="J55" t="n">
         <v>53</v>
       </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>53</v>
+      </c>
+      <c r="L55" t="n">
+        <v>53</v>
+      </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -3570,7 +3902,9 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="n">
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="n">
         <v>30.71705159757317</v>
       </c>
     </row>
@@ -3605,8 +3939,12 @@
       <c r="J56" t="n">
         <v>54</v>
       </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>54</v>
+      </c>
+      <c r="L56" t="n">
+        <v>54</v>
+      </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -3616,7 +3954,9 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="n">
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="n">
         <v>30.40893174766933</v>
       </c>
     </row>
@@ -3648,8 +3988,12 @@
       <c r="I57" t="n">
         <v>55</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>55</v>
+      </c>
+      <c r="K57" t="n">
+        <v>55</v>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
@@ -3660,7 +4004,9 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="n">
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="n">
         <v>30.00756593430685</v>
       </c>
     </row>
@@ -3692,8 +4038,12 @@
       <c r="I58" t="n">
         <v>56</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>56</v>
+      </c>
+      <c r="K58" t="n">
+        <v>56</v>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
@@ -3704,7 +4054,9 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="n">
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="n">
         <v>29.61517987173261</v>
       </c>
     </row>
@@ -3736,8 +4088,12 @@
       <c r="I59" t="n">
         <v>57</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>57</v>
+      </c>
+      <c r="K59" t="n">
+        <v>57</v>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
@@ -3748,7 +4104,9 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="n">
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="n">
         <v>28.95441448443535</v>
       </c>
     </row>
@@ -3780,8 +4138,12 @@
       <c r="I60" t="n">
         <v>58</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>58</v>
+      </c>
+      <c r="K60" t="n">
+        <v>58</v>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
@@ -3792,7 +4154,9 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="n">
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="n">
         <v>28.93568544726321</v>
       </c>
     </row>
@@ -3824,8 +4188,12 @@
       <c r="I61" t="n">
         <v>59</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>59</v>
+      </c>
+      <c r="K61" t="n">
+        <v>59</v>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -3836,7 +4204,9 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="n">
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="n">
         <v>29.07687113806344</v>
       </c>
     </row>
@@ -3865,8 +4235,12 @@
       <c r="H62" t="n">
         <v>60</v>
       </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>60</v>
+      </c>
+      <c r="J62" t="n">
+        <v>60</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -3878,7 +4252,9 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="n">
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="n">
         <v>30.66437626656585</v>
       </c>
     </row>
@@ -3907,8 +4283,12 @@
       <c r="H63" t="n">
         <v>61</v>
       </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>61</v>
+      </c>
+      <c r="J63" t="n">
+        <v>61</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
@@ -3920,7 +4300,9 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="n">
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="n">
         <v>29.71554851349543</v>
       </c>
     </row>
@@ -3949,8 +4331,12 @@
       <c r="H64" t="n">
         <v>62</v>
       </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>62</v>
+      </c>
+      <c r="J64" t="n">
+        <v>62</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -3962,7 +4348,9 @@
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
-      <c r="V64" t="n">
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="n">
         <v>29.37691292915611</v>
       </c>
     </row>
@@ -3991,8 +4379,12 @@
       <c r="H65" t="n">
         <v>63</v>
       </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>63</v>
+      </c>
+      <c r="J65" t="n">
+        <v>63</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -4004,7 +4396,9 @@
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
-      <c r="V65" t="n">
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="n">
         <v>29.73525220398017</v>
       </c>
     </row>
@@ -4033,8 +4427,12 @@
       <c r="H66" t="n">
         <v>64</v>
       </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>64</v>
+      </c>
+      <c r="J66" t="n">
+        <v>64</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -4046,7 +4444,9 @@
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
-      <c r="V66" t="n">
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="n">
         <v>30.20347400339665</v>
       </c>
     </row>
@@ -4072,8 +4472,12 @@
       <c r="G67" t="n">
         <v>65</v>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>65</v>
+      </c>
+      <c r="I67" t="n">
+        <v>65</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
@@ -4086,7 +4490,9 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="n">
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="n">
         <v>30.05011065270486</v>
       </c>
     </row>
@@ -4112,8 +4518,12 @@
       <c r="G68" t="n">
         <v>66</v>
       </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>66</v>
+      </c>
+      <c r="I68" t="n">
+        <v>66</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
@@ -4126,7 +4536,9 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="n">
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="n">
         <v>29.4726120454439</v>
       </c>
     </row>
@@ -4152,8 +4564,12 @@
       <c r="G69" t="n">
         <v>67</v>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>67</v>
+      </c>
+      <c r="I69" t="n">
+        <v>67</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
@@ -4166,7 +4582,9 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="n">
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="n">
         <v>29.81097643387562</v>
       </c>
     </row>
@@ -4192,8 +4610,12 @@
       <c r="G70" t="n">
         <v>68</v>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>68</v>
+      </c>
+      <c r="I70" t="n">
+        <v>68</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
@@ -4206,7 +4628,9 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="n">
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="n">
         <v>29.90499743944582</v>
       </c>
     </row>
@@ -4232,8 +4656,12 @@
       <c r="G71" t="n">
         <v>69</v>
       </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>69</v>
+      </c>
+      <c r="I71" t="n">
+        <v>69</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -4246,7 +4674,9 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="n">
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="n">
         <v>29.14887020995906</v>
       </c>
     </row>
@@ -4269,8 +4699,12 @@
       <c r="F72" t="n">
         <v>70</v>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>70</v>
+      </c>
+      <c r="H72" t="n">
+        <v>70</v>
+      </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -4284,7 +4718,9 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
-      <c r="V72" t="n">
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="n">
         <v>30.23977983929086</v>
       </c>
     </row>
@@ -4307,8 +4743,12 @@
       <c r="F73" t="n">
         <v>71</v>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>71</v>
+      </c>
+      <c r="H73" t="n">
+        <v>71</v>
+      </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -4322,7 +4762,9 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="n">
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="n">
         <v>30.38220174290848</v>
       </c>
     </row>
@@ -4345,8 +4787,12 @@
       <c r="F74" t="n">
         <v>72</v>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>72</v>
+      </c>
+      <c r="H74" t="n">
+        <v>72</v>
+      </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -4360,7 +4806,9 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
-      <c r="V74" t="n">
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="n">
         <v>30.49393445684007</v>
       </c>
     </row>
@@ -4383,8 +4831,12 @@
       <c r="F75" t="n">
         <v>73</v>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>73</v>
+      </c>
+      <c r="H75" t="n">
+        <v>73</v>
+      </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -4398,7 +4850,9 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="n">
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="n">
         <v>30.98144420479156</v>
       </c>
     </row>
@@ -4421,8 +4875,12 @@
       <c r="F76" t="n">
         <v>74</v>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>74</v>
+      </c>
+      <c r="H76" t="n">
+        <v>74</v>
+      </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -4436,7 +4894,9 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="n">
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="n">
         <v>30.88058823637243</v>
       </c>
     </row>
@@ -4456,8 +4916,12 @@
       <c r="E77" t="n">
         <v>75</v>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>75</v>
+      </c>
+      <c r="G77" t="n">
+        <v>75</v>
+      </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -4472,7 +4936,9 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
-      <c r="V77" t="n">
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="n">
         <v>29.5957914292826</v>
       </c>
     </row>
@@ -4492,8 +4958,12 @@
       <c r="E78" t="n">
         <v>76</v>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>76</v>
+      </c>
+      <c r="G78" t="n">
+        <v>76</v>
+      </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -4508,7 +4978,9 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
-      <c r="V78" t="n">
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="n">
         <v>29.50264458311</v>
       </c>
     </row>
@@ -4528,8 +5000,12 @@
       <c r="E79" t="n">
         <v>77</v>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>77</v>
+      </c>
+      <c r="G79" t="n">
+        <v>77</v>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -4544,7 +5020,9 @@
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
-      <c r="V79" t="n">
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="n">
         <v>29.43434864315066</v>
       </c>
     </row>
@@ -4564,8 +5042,12 @@
       <c r="E80" t="n">
         <v>78</v>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>78</v>
+      </c>
+      <c r="G80" t="n">
+        <v>78</v>
+      </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -4580,7 +5062,9 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
-      <c r="V80" t="n">
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="n">
         <v>29.30550030120281</v>
       </c>
     </row>
@@ -4600,8 +5084,12 @@
       <c r="E81" t="n">
         <v>79</v>
       </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>79</v>
+      </c>
+      <c r="G81" t="n">
+        <v>79</v>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -4616,7 +5104,9 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
-      <c r="V81" t="n">
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="n">
         <v>28.88129208329809</v>
       </c>
     </row>
@@ -4633,8 +5123,12 @@
       <c r="D82" t="n">
         <v>80</v>
       </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>80</v>
+      </c>
+      <c r="F82" t="n">
+        <v>80</v>
+      </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -4650,7 +5144,9 @@
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
-      <c r="V82" t="n">
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="n">
         <v>30.46725951723812</v>
       </c>
     </row>
@@ -4667,8 +5163,12 @@
       <c r="D83" t="n">
         <v>81</v>
       </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>81</v>
+      </c>
+      <c r="F83" t="n">
+        <v>81</v>
+      </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -4684,7 +5184,9 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
-      <c r="V83" t="n">
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="n">
         <v>30.30320113605825</v>
       </c>
     </row>
@@ -4701,8 +5203,12 @@
       <c r="D84" t="n">
         <v>82</v>
       </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>82</v>
+      </c>
+      <c r="F84" t="n">
+        <v>82</v>
+      </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
@@ -4718,7 +5224,9 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
-      <c r="V84" t="n">
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="n">
         <v>30.33314281621216</v>
       </c>
     </row>
@@ -4735,8 +5243,12 @@
       <c r="D85" t="n">
         <v>83</v>
       </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>83</v>
+      </c>
+      <c r="F85" t="n">
+        <v>83</v>
+      </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
@@ -4752,7 +5264,9 @@
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
-      <c r="V85" t="n">
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="n">
         <v>30.25661876488363</v>
       </c>
     </row>
@@ -4769,8 +5283,12 @@
       <c r="D86" t="n">
         <v>84</v>
       </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>84</v>
+      </c>
+      <c r="F86" t="n">
+        <v>84</v>
+      </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
@@ -4786,7 +5304,9 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
-      <c r="V86" t="n">
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="n">
         <v>30.87639364789294</v>
       </c>
     </row>
@@ -4800,8 +5320,12 @@
       <c r="C87" t="n">
         <v>85</v>
       </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>85</v>
+      </c>
+      <c r="E87" t="n">
+        <v>85</v>
+      </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
@@ -4818,7 +5342,9 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
-      <c r="V87" t="n">
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="n">
         <v>28.66571473944788</v>
       </c>
     </row>
@@ -4832,8 +5358,12 @@
       <c r="C88" t="n">
         <v>86</v>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>86</v>
+      </c>
+      <c r="E88" t="n">
+        <v>86</v>
+      </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
@@ -4850,7 +5380,9 @@
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
-      <c r="V88" t="n">
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="n">
         <v>28.8619683424098</v>
       </c>
     </row>
@@ -4864,8 +5396,12 @@
       <c r="C89" t="n">
         <v>87</v>
       </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>87</v>
+      </c>
+      <c r="E89" t="n">
+        <v>87</v>
+      </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
@@ -4882,7 +5418,9 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
-      <c r="V89" t="n">
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="n">
         <v>29.76204140378684</v>
       </c>
     </row>
@@ -4896,8 +5434,12 @@
       <c r="C90" t="n">
         <v>88</v>
       </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>88</v>
+      </c>
+      <c r="E90" t="n">
+        <v>88</v>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
@@ -4914,7 +5456,9 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
-      <c r="V90" t="n">
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="n">
         <v>29.70551151165625</v>
       </c>
     </row>
@@ -4928,8 +5472,12 @@
       <c r="C91" t="n">
         <v>89</v>
       </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>89</v>
+      </c>
+      <c r="E91" t="n">
+        <v>89</v>
+      </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
@@ -4946,7 +5494,9 @@
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
-      <c r="V91" t="n">
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="n">
         <v>29.53626048599176</v>
       </c>
     </row>
@@ -4957,8 +5507,12 @@
       <c r="B92" t="n">
         <v>90</v>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="n">
+        <v>90</v>
+      </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
@@ -4976,7 +5530,9 @@
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
-      <c r="V92" t="n">
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="n">
         <v>31.81960475475518</v>
       </c>
     </row>
@@ -4987,8 +5543,12 @@
       <c r="B93" t="n">
         <v>91</v>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="n">
+        <v>91</v>
+      </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
@@ -5006,7 +5566,9 @@
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
-      <c r="V93" t="n">
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="n">
         <v>31.37961348567967</v>
       </c>
     </row>
@@ -5017,8 +5579,12 @@
       <c r="B94" t="n">
         <v>92</v>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="n">
+        <v>92</v>
+      </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
@@ -5036,7 +5602,9 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
-      <c r="V94" t="n">
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="n">
         <v>30.52227511749885</v>
       </c>
     </row>
@@ -5047,8 +5615,12 @@
       <c r="B95" t="n">
         <v>93</v>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="n">
+        <v>93</v>
+      </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
@@ -5066,7 +5638,9 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
-      <c r="V95" t="n">
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="n">
         <v>30.01177979559196</v>
       </c>
     </row>
@@ -5077,8 +5651,12 @@
       <c r="B96" t="n">
         <v>94</v>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="n">
+        <v>94</v>
+      </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
@@ -5096,7 +5674,9 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
-      <c r="V96" t="n">
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="n">
         <v>29.68068125487758</v>
       </c>
     </row>
@@ -5104,8 +5684,12 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
@@ -5124,7 +5708,9 @@
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
-      <c r="V97" t="n">
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="n">
         <v>28.48524969417264</v>
       </c>
     </row>
@@ -5132,8 +5718,12 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
@@ -5152,7 +5742,9 @@
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
-      <c r="V98" t="n">
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="n">
         <v>28.19800917589612</v>
       </c>
     </row>
@@ -5160,8 +5752,12 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
@@ -5180,7 +5776,9 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
-      <c r="V99" t="n">
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="n">
         <v>28.07364451451201</v>
       </c>
     </row>
@@ -5188,8 +5786,12 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
@@ -5208,7 +5810,9 @@
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
-      <c r="V100" t="n">
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="n">
         <v>27.45626358928604</v>
       </c>
     </row>
@@ -5216,8 +5820,12 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
@@ -5236,8 +5844,320 @@
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
-      <c r="V101" t="n">
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="n">
         <v>27.082753863184</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="n">
+        <v>30.04719770579885</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="n">
+        <v>29.87993040248386</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="n">
+        <v>30.56610560735726</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="n">
+        <v>30.06053724054328</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="n">
+        <v>29.52941175685311</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="n">
+        <v>27.93915337040551</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="n">
+        <v>27.49183705856683</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="n">
+        <v>26.52306883482839</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="n">
+        <v>26.21526698621722</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="n">
+        <v>25.41927120505517</v>
       </c>
     </row>
   </sheetData>

--- a/silver_fore.xlsx
+++ b/silver_fore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X111"/>
+  <dimension ref="A1:Z121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,115 +436,125 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.22</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.21</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.20</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.19</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.18</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.17</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.16</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.15</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.14</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.13</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">   SILVER_FOR</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>SILVER_FOR</t>
         </is>
@@ -618,9 +628,15 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>27.44466</v>
       </c>
-      <c r="X2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -690,9 +706,15 @@
         <v>1</v>
       </c>
       <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
         <v>26.933548</v>
       </c>
-      <c r="X3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -762,9 +784,15 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="n">
         <v>27.173124</v>
       </c>
-      <c r="X4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -834,9 +862,15 @@
         <v>3</v>
       </c>
       <c r="W5" t="n">
+        <v>3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="n">
         <v>26.856646</v>
       </c>
-      <c r="X5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -906,9 +940,15 @@
         <v>4</v>
       </c>
       <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="n">
         <v>26.422922</v>
       </c>
-      <c r="X6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -974,9 +1014,15 @@
       <c r="U7" t="n">
         <v>5</v>
       </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="n">
+      <c r="V7" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="n">
         <v>30.93059290717292</v>
       </c>
     </row>
@@ -1044,9 +1090,15 @@
       <c r="U8" t="n">
         <v>6</v>
       </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="n">
+      <c r="V8" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="n">
         <v>30.6353459147918</v>
       </c>
     </row>
@@ -1114,9 +1166,15 @@
       <c r="U9" t="n">
         <v>7</v>
       </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
+      <c r="V9" t="n">
+        <v>7</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="n">
         <v>30.30023174736436</v>
       </c>
     </row>
@@ -1184,9 +1242,15 @@
       <c r="U10" t="n">
         <v>8</v>
       </c>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="n">
+      <c r="V10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="n">
         <v>29.53532024840348</v>
       </c>
     </row>
@@ -1254,9 +1318,15 @@
       <c r="U11" t="n">
         <v>9</v>
       </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="n">
+      <c r="V11" t="n">
+        <v>9</v>
+      </c>
+      <c r="W11" t="n">
+        <v>9</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="n">
         <v>29.15916464141611</v>
       </c>
     </row>
@@ -1321,10 +1391,16 @@
       <c r="T12" t="n">
         <v>10</v>
       </c>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>10</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10</v>
+      </c>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="n">
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="n">
         <v>31.76244298992617</v>
       </c>
     </row>
@@ -1389,10 +1465,16 @@
       <c r="T13" t="n">
         <v>11</v>
       </c>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>11</v>
+      </c>
+      <c r="V13" t="n">
+        <v>11</v>
+      </c>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="n">
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="n">
         <v>32.23934168175691</v>
       </c>
     </row>
@@ -1457,10 +1539,16 @@
       <c r="T14" t="n">
         <v>12</v>
       </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="U14" t="n">
+        <v>12</v>
+      </c>
+      <c r="V14" t="n">
+        <v>12</v>
+      </c>
       <c r="W14" t="inlineStr"/>
-      <c r="X14" t="n">
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="n">
         <v>32.5524573182023</v>
       </c>
     </row>
@@ -1525,10 +1613,16 @@
       <c r="T15" t="n">
         <v>13</v>
       </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>13</v>
+      </c>
+      <c r="V15" t="n">
+        <v>13</v>
+      </c>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="n">
         <v>32.38868114596181</v>
       </c>
     </row>
@@ -1593,10 +1687,16 @@
       <c r="T16" t="n">
         <v>14</v>
       </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>14</v>
+      </c>
+      <c r="V16" t="n">
+        <v>14</v>
+      </c>
       <c r="W16" t="inlineStr"/>
-      <c r="X16" t="n">
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="n">
         <v>32.10415671664822</v>
       </c>
     </row>
@@ -1658,11 +1758,17 @@
       <c r="S17" t="n">
         <v>15</v>
       </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>15</v>
+      </c>
+      <c r="U17" t="n">
+        <v>15</v>
+      </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
-      <c r="X17" t="n">
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="n">
         <v>28.81685345771996</v>
       </c>
     </row>
@@ -1724,11 +1830,17 @@
       <c r="S18" t="n">
         <v>16</v>
       </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>16</v>
+      </c>
+      <c r="U18" t="n">
+        <v>16</v>
+      </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="n">
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="n">
         <v>28.51061683625062</v>
       </c>
     </row>
@@ -1790,11 +1902,17 @@
       <c r="S19" t="n">
         <v>17</v>
       </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>17</v>
+      </c>
+      <c r="U19" t="n">
+        <v>17</v>
+      </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
-      <c r="X19" t="n">
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="n">
         <v>27.67123246313037</v>
       </c>
     </row>
@@ -1856,11 +1974,17 @@
       <c r="S20" t="n">
         <v>18</v>
       </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>18</v>
+      </c>
+      <c r="U20" t="n">
+        <v>18</v>
+      </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
-      <c r="X20" t="n">
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="n">
         <v>27.34084839285276</v>
       </c>
     </row>
@@ -1922,11 +2046,17 @@
       <c r="S21" t="n">
         <v>19</v>
       </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>19</v>
+      </c>
+      <c r="U21" t="n">
+        <v>19</v>
+      </c>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
-      <c r="X21" t="n">
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="n">
         <v>26.94339908891732</v>
       </c>
     </row>
@@ -1985,12 +2115,18 @@
       <c r="R22" t="n">
         <v>20</v>
       </c>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" t="n">
+        <v>20</v>
+      </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
-      <c r="X22" t="n">
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="n">
         <v>29.09709106441289</v>
       </c>
     </row>
@@ -2049,12 +2185,18 @@
       <c r="R23" t="n">
         <v>21</v>
       </c>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>21</v>
+      </c>
+      <c r="T23" t="n">
+        <v>21</v>
+      </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="n">
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="n">
         <v>28.96379896414152</v>
       </c>
     </row>
@@ -2113,12 +2255,18 @@
       <c r="R24" t="n">
         <v>22</v>
       </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>22</v>
+      </c>
+      <c r="T24" t="n">
+        <v>22</v>
+      </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
-      <c r="X24" t="n">
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="n">
         <v>28.94952882821161</v>
       </c>
     </row>
@@ -2177,12 +2325,18 @@
       <c r="R25" t="n">
         <v>23</v>
       </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>23</v>
+      </c>
+      <c r="T25" t="n">
+        <v>23</v>
+      </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
-      <c r="X25" t="n">
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="n">
         <v>29.52255201468267</v>
       </c>
     </row>
@@ -2241,12 +2395,18 @@
       <c r="R26" t="n">
         <v>24</v>
       </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>24</v>
+      </c>
+      <c r="T26" t="n">
+        <v>24</v>
+      </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
-      <c r="X26" t="n">
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
         <v>28.89384280964123</v>
       </c>
     </row>
@@ -2302,13 +2462,19 @@
       <c r="Q27" t="n">
         <v>25</v>
       </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>25</v>
+      </c>
+      <c r="S27" t="n">
+        <v>25</v>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
-      <c r="X27" t="n">
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="n">
         <v>28.95396845664823</v>
       </c>
     </row>
@@ -2364,13 +2530,19 @@
       <c r="Q28" t="n">
         <v>26</v>
       </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>26</v>
+      </c>
+      <c r="S28" t="n">
+        <v>26</v>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
-      <c r="X28" t="n">
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="n">
         <v>28.94541683747048</v>
       </c>
     </row>
@@ -2426,13 +2598,19 @@
       <c r="Q29" t="n">
         <v>27</v>
       </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>27</v>
+      </c>
+      <c r="S29" t="n">
+        <v>27</v>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
-      <c r="X29" t="n">
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="n">
         <v>28.70188153581586</v>
       </c>
     </row>
@@ -2488,13 +2666,19 @@
       <c r="Q30" t="n">
         <v>28</v>
       </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>28</v>
+      </c>
+      <c r="S30" t="n">
+        <v>28</v>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
-      <c r="X30" t="n">
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="n">
         <v>27.87425082086361</v>
       </c>
     </row>
@@ -2550,13 +2734,19 @@
       <c r="Q31" t="n">
         <v>29</v>
       </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>29</v>
+      </c>
+      <c r="S31" t="n">
+        <v>29</v>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
-      <c r="X31" t="n">
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="n">
         <v>28.09067066164505</v>
       </c>
     </row>
@@ -2609,14 +2799,20 @@
       <c r="P32" t="n">
         <v>30</v>
       </c>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>30</v>
+      </c>
+      <c r="R32" t="n">
+        <v>30</v>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
-      <c r="X32" t="n">
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="n">
         <v>31.23943548728738</v>
       </c>
     </row>
@@ -2669,14 +2865,20 @@
       <c r="P33" t="n">
         <v>31</v>
       </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>31</v>
+      </c>
+      <c r="R33" t="n">
+        <v>31</v>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
-      <c r="X33" t="n">
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="n">
         <v>31.04450482476813</v>
       </c>
     </row>
@@ -2729,14 +2931,20 @@
       <c r="P34" t="n">
         <v>32</v>
       </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="Q34" t="n">
+        <v>32</v>
+      </c>
+      <c r="R34" t="n">
+        <v>32</v>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="n">
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
         <v>30.54658087863896</v>
       </c>
     </row>
@@ -2789,14 +2997,20 @@
       <c r="P35" t="n">
         <v>33</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>33</v>
+      </c>
+      <c r="R35" t="n">
+        <v>33</v>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
-      <c r="X35" t="n">
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
         <v>30.17317577633884</v>
       </c>
     </row>
@@ -2849,14 +3063,20 @@
       <c r="P36" t="n">
         <v>34</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>34</v>
+      </c>
+      <c r="R36" t="n">
+        <v>34</v>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
-      <c r="X36" t="n">
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
         <v>29.77593984989414</v>
       </c>
     </row>
@@ -2906,15 +3126,21 @@
       <c r="O37" t="n">
         <v>35</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+      <c r="P37" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>35</v>
+      </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
-      <c r="X37" t="n">
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
         <v>29.80264645196246</v>
       </c>
     </row>
@@ -2964,15 +3190,21 @@
       <c r="O38" t="n">
         <v>36</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="P38" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>36</v>
+      </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="n">
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="n">
         <v>29.55922128062565</v>
       </c>
     </row>
@@ -3022,15 +3254,21 @@
       <c r="O39" t="n">
         <v>37</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+      <c r="P39" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>37</v>
+      </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
-      <c r="X39" t="n">
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
         <v>29.30527315742233</v>
       </c>
     </row>
@@ -3080,15 +3318,21 @@
       <c r="O40" t="n">
         <v>38</v>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
+      <c r="P40" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>38</v>
+      </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-      <c r="X40" t="n">
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="n">
         <v>28.8122954391917</v>
       </c>
     </row>
@@ -3138,15 +3382,21 @@
       <c r="O41" t="n">
         <v>39</v>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="P41" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>39</v>
+      </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="n">
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
         <v>28.18952363490905</v>
       </c>
     </row>
@@ -3193,8 +3443,12 @@
       <c r="N42" t="n">
         <v>40</v>
       </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
+      <c r="O42" t="n">
+        <v>40</v>
+      </c>
+      <c r="P42" t="n">
+        <v>40</v>
+      </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
@@ -3202,7 +3456,9 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
-      <c r="X42" t="n">
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="n">
         <v>30.70601929298681</v>
       </c>
     </row>
@@ -3249,8 +3505,12 @@
       <c r="N43" t="n">
         <v>41</v>
       </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>41</v>
+      </c>
+      <c r="P43" t="n">
+        <v>41</v>
+      </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
@@ -3258,7 +3518,9 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
-      <c r="X43" t="n">
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="n">
         <v>30.43889270062886</v>
       </c>
     </row>
@@ -3305,8 +3567,12 @@
       <c r="N44" t="n">
         <v>42</v>
       </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="O44" t="n">
+        <v>42</v>
+      </c>
+      <c r="P44" t="n">
+        <v>42</v>
+      </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
@@ -3314,7 +3580,9 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
-      <c r="X44" t="n">
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="n">
         <v>30.30290516082914</v>
       </c>
     </row>
@@ -3361,8 +3629,12 @@
       <c r="N45" t="n">
         <v>43</v>
       </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+      <c r="O45" t="n">
+        <v>43</v>
+      </c>
+      <c r="P45" t="n">
+        <v>43</v>
+      </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
@@ -3370,7 +3642,9 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
-      <c r="X45" t="n">
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="n">
         <v>30.37639649853105</v>
       </c>
     </row>
@@ -3417,8 +3691,12 @@
       <c r="N46" t="n">
         <v>44</v>
       </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>44</v>
+      </c>
+      <c r="P46" t="n">
+        <v>44</v>
+      </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
@@ -3426,7 +3704,9 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
-      <c r="X46" t="n">
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="n">
         <v>29.82201011509096</v>
       </c>
     </row>
@@ -3470,8 +3750,12 @@
       <c r="M47" t="n">
         <v>45</v>
       </c>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="N47" t="n">
+        <v>45</v>
+      </c>
+      <c r="O47" t="n">
+        <v>45</v>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -3480,7 +3764,9 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
-      <c r="X47" t="n">
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="n">
         <v>28.05217323242647</v>
       </c>
     </row>
@@ -3524,8 +3810,12 @@
       <c r="M48" t="n">
         <v>46</v>
       </c>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="N48" t="n">
+        <v>46</v>
+      </c>
+      <c r="O48" t="n">
+        <v>46</v>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -3534,7 +3824,9 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
-      <c r="X48" t="n">
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="n">
         <v>27.89165416433514</v>
       </c>
     </row>
@@ -3578,8 +3870,12 @@
       <c r="M49" t="n">
         <v>47</v>
       </c>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="N49" t="n">
+        <v>47</v>
+      </c>
+      <c r="O49" t="n">
+        <v>47</v>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3588,7 +3884,9 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
-      <c r="X49" t="n">
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="n">
         <v>28.205499414136</v>
       </c>
     </row>
@@ -3632,8 +3930,12 @@
       <c r="M50" t="n">
         <v>48</v>
       </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+      <c r="N50" t="n">
+        <v>48</v>
+      </c>
+      <c r="O50" t="n">
+        <v>48</v>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3642,7 +3944,9 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
-      <c r="X50" t="n">
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="n">
         <v>28.41437395151866</v>
       </c>
     </row>
@@ -3686,8 +3990,12 @@
       <c r="M51" t="n">
         <v>49</v>
       </c>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="N51" t="n">
+        <v>49</v>
+      </c>
+      <c r="O51" t="n">
+        <v>49</v>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3696,7 +4004,9 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
-      <c r="X51" t="n">
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="n">
         <v>28.78275573469779</v>
       </c>
     </row>
@@ -3737,8 +4047,12 @@
       <c r="L52" t="n">
         <v>50</v>
       </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>50</v>
+      </c>
+      <c r="N52" t="n">
+        <v>50</v>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3748,7 +4062,9 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
-      <c r="X52" t="n">
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="n">
         <v>31.55722890898164</v>
       </c>
     </row>
@@ -3789,8 +4105,12 @@
       <c r="L53" t="n">
         <v>51</v>
       </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>51</v>
+      </c>
+      <c r="N53" t="n">
+        <v>51</v>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -3800,7 +4120,9 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
-      <c r="X53" t="n">
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="n">
         <v>30.83284674360289</v>
       </c>
     </row>
@@ -3841,8 +4163,12 @@
       <c r="L54" t="n">
         <v>52</v>
       </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>52</v>
+      </c>
+      <c r="N54" t="n">
+        <v>52</v>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3852,7 +4178,9 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="n">
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="n">
         <v>30.74265827309239</v>
       </c>
     </row>
@@ -3893,8 +4221,12 @@
       <c r="L55" t="n">
         <v>53</v>
       </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>53</v>
+      </c>
+      <c r="N55" t="n">
+        <v>53</v>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3904,7 +4236,9 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
-      <c r="X55" t="n">
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="n">
         <v>30.71705159757317</v>
       </c>
     </row>
@@ -3945,8 +4279,12 @@
       <c r="L56" t="n">
         <v>54</v>
       </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>54</v>
+      </c>
+      <c r="N56" t="n">
+        <v>54</v>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -3956,7 +4294,9 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
-      <c r="X56" t="n">
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="n">
         <v>30.40893174766933</v>
       </c>
     </row>
@@ -3994,8 +4334,12 @@
       <c r="K57" t="n">
         <v>55</v>
       </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>55</v>
+      </c>
+      <c r="M57" t="n">
+        <v>55</v>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
@@ -4006,7 +4350,9 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
-      <c r="X57" t="n">
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="n">
         <v>30.00756593430685</v>
       </c>
     </row>
@@ -4044,8 +4390,12 @@
       <c r="K58" t="n">
         <v>56</v>
       </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>56</v>
+      </c>
+      <c r="M58" t="n">
+        <v>56</v>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
@@ -4056,7 +4406,9 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
-      <c r="X58" t="n">
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="n">
         <v>29.61517987173261</v>
       </c>
     </row>
@@ -4094,8 +4446,12 @@
       <c r="K59" t="n">
         <v>57</v>
       </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>57</v>
+      </c>
+      <c r="M59" t="n">
+        <v>57</v>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
@@ -4106,7 +4462,9 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
-      <c r="X59" t="n">
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="n">
         <v>28.95441448443535</v>
       </c>
     </row>
@@ -4144,8 +4502,12 @@
       <c r="K60" t="n">
         <v>58</v>
       </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>58</v>
+      </c>
+      <c r="M60" t="n">
+        <v>58</v>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
@@ -4156,7 +4518,9 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
-      <c r="X60" t="n">
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="n">
         <v>28.93568544726321</v>
       </c>
     </row>
@@ -4194,8 +4558,12 @@
       <c r="K61" t="n">
         <v>59</v>
       </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>59</v>
+      </c>
+      <c r="M61" t="n">
+        <v>59</v>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
@@ -4206,7 +4574,9 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
-      <c r="X61" t="n">
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="n">
         <v>29.07687113806344</v>
       </c>
     </row>
@@ -4241,8 +4611,12 @@
       <c r="J62" t="n">
         <v>60</v>
       </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>60</v>
+      </c>
+      <c r="L62" t="n">
+        <v>60</v>
+      </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -4254,7 +4628,9 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
-      <c r="X62" t="n">
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="n">
         <v>30.66437626656585</v>
       </c>
     </row>
@@ -4289,8 +4665,12 @@
       <c r="J63" t="n">
         <v>61</v>
       </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>61</v>
+      </c>
+      <c r="L63" t="n">
+        <v>61</v>
+      </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -4302,7 +4682,9 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
-      <c r="X63" t="n">
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="n">
         <v>29.71554851349543</v>
       </c>
     </row>
@@ -4337,8 +4719,12 @@
       <c r="J64" t="n">
         <v>62</v>
       </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>62</v>
+      </c>
+      <c r="L64" t="n">
+        <v>62</v>
+      </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -4350,7 +4736,9 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
-      <c r="X64" t="n">
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="n">
         <v>29.37691292915611</v>
       </c>
     </row>
@@ -4385,8 +4773,12 @@
       <c r="J65" t="n">
         <v>63</v>
       </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>63</v>
+      </c>
+      <c r="L65" t="n">
+        <v>63</v>
+      </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4398,7 +4790,9 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
-      <c r="X65" t="n">
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="n">
         <v>29.73525220398017</v>
       </c>
     </row>
@@ -4433,8 +4827,12 @@
       <c r="J66" t="n">
         <v>64</v>
       </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>64</v>
+      </c>
+      <c r="L66" t="n">
+        <v>64</v>
+      </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -4446,7 +4844,9 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
-      <c r="X66" t="n">
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="n">
         <v>30.20347400339665</v>
       </c>
     </row>
@@ -4478,8 +4878,12 @@
       <c r="I67" t="n">
         <v>65</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>65</v>
+      </c>
+      <c r="K67" t="n">
+        <v>65</v>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -4492,7 +4896,9 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
-      <c r="X67" t="n">
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="n">
         <v>30.05011065270486</v>
       </c>
     </row>
@@ -4524,8 +4930,12 @@
       <c r="I68" t="n">
         <v>66</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>66</v>
+      </c>
+      <c r="K68" t="n">
+        <v>66</v>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -4538,7 +4948,9 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
-      <c r="X68" t="n">
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="n">
         <v>29.4726120454439</v>
       </c>
     </row>
@@ -4570,8 +4982,12 @@
       <c r="I69" t="n">
         <v>67</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>67</v>
+      </c>
+      <c r="K69" t="n">
+        <v>67</v>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
@@ -4584,7 +5000,9 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
-      <c r="X69" t="n">
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="n">
         <v>29.81097643387562</v>
       </c>
     </row>
@@ -4616,8 +5034,12 @@
       <c r="I70" t="n">
         <v>68</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>68</v>
+      </c>
+      <c r="K70" t="n">
+        <v>68</v>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -4630,7 +5052,9 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
-      <c r="X70" t="n">
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="n">
         <v>29.90499743944582</v>
       </c>
     </row>
@@ -4662,8 +5086,12 @@
       <c r="I71" t="n">
         <v>69</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>69</v>
+      </c>
+      <c r="K71" t="n">
+        <v>69</v>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
@@ -4676,7 +5104,9 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
-      <c r="X71" t="n">
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="n">
         <v>29.14887020995906</v>
       </c>
     </row>
@@ -4705,8 +5135,12 @@
       <c r="H72" t="n">
         <v>70</v>
       </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>70</v>
+      </c>
+      <c r="J72" t="n">
+        <v>70</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -4720,7 +5154,9 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
-      <c r="X72" t="n">
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="n">
         <v>30.23977983929086</v>
       </c>
     </row>
@@ -4749,8 +5185,12 @@
       <c r="H73" t="n">
         <v>71</v>
       </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>71</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
@@ -4764,7 +5204,9 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
-      <c r="X73" t="n">
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="n">
         <v>30.38220174290848</v>
       </c>
     </row>
@@ -4793,8 +5235,12 @@
       <c r="H74" t="n">
         <v>72</v>
       </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>72</v>
+      </c>
+      <c r="J74" t="n">
+        <v>72</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -4808,7 +5254,9 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
-      <c r="X74" t="n">
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="n">
         <v>30.49393445684007</v>
       </c>
     </row>
@@ -4837,8 +5285,12 @@
       <c r="H75" t="n">
         <v>73</v>
       </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>73</v>
+      </c>
+      <c r="J75" t="n">
+        <v>73</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -4852,7 +5304,9 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
-      <c r="X75" t="n">
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="n">
         <v>30.98144420479156</v>
       </c>
     </row>
@@ -4881,8 +5335,12 @@
       <c r="H76" t="n">
         <v>74</v>
       </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>74</v>
+      </c>
+      <c r="J76" t="n">
+        <v>74</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -4896,7 +5354,9 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
-      <c r="X76" t="n">
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="n">
         <v>30.88058823637243</v>
       </c>
     </row>
@@ -4922,8 +5382,12 @@
       <c r="G77" t="n">
         <v>75</v>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>75</v>
+      </c>
+      <c r="I77" t="n">
+        <v>75</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -4938,7 +5402,9 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
-      <c r="X77" t="n">
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="n">
         <v>29.5957914292826</v>
       </c>
     </row>
@@ -4964,8 +5430,12 @@
       <c r="G78" t="n">
         <v>76</v>
       </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>76</v>
+      </c>
+      <c r="I78" t="n">
+        <v>76</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -4980,7 +5450,9 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
-      <c r="X78" t="n">
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="n">
         <v>29.50264458311</v>
       </c>
     </row>
@@ -5006,8 +5478,12 @@
       <c r="G79" t="n">
         <v>77</v>
       </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>77</v>
+      </c>
+      <c r="I79" t="n">
+        <v>77</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
@@ -5022,7 +5498,9 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
-      <c r="X79" t="n">
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="n">
         <v>29.43434864315066</v>
       </c>
     </row>
@@ -5048,8 +5526,12 @@
       <c r="G80" t="n">
         <v>78</v>
       </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>78</v>
+      </c>
+      <c r="I80" t="n">
+        <v>78</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
@@ -5064,7 +5546,9 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
-      <c r="X80" t="n">
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="n">
         <v>29.30550030120281</v>
       </c>
     </row>
@@ -5090,8 +5574,12 @@
       <c r="G81" t="n">
         <v>79</v>
       </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>79</v>
+      </c>
+      <c r="I81" t="n">
+        <v>79</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
@@ -5106,7 +5594,9 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
-      <c r="X81" t="n">
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="n">
         <v>28.88129208329809</v>
       </c>
     </row>
@@ -5129,8 +5619,12 @@
       <c r="F82" t="n">
         <v>80</v>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>80</v>
+      </c>
+      <c r="H82" t="n">
+        <v>80</v>
+      </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -5146,7 +5640,9 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
-      <c r="X82" t="n">
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="n">
         <v>30.46725951723812</v>
       </c>
     </row>
@@ -5169,8 +5665,12 @@
       <c r="F83" t="n">
         <v>81</v>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>81</v>
+      </c>
+      <c r="H83" t="n">
+        <v>81</v>
+      </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -5186,7 +5686,9 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
-      <c r="X83" t="n">
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="n">
         <v>30.30320113605825</v>
       </c>
     </row>
@@ -5209,8 +5711,12 @@
       <c r="F84" t="n">
         <v>82</v>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>82</v>
+      </c>
+      <c r="H84" t="n">
+        <v>82</v>
+      </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -5226,7 +5732,9 @@
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
-      <c r="X84" t="n">
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="n">
         <v>30.33314281621216</v>
       </c>
     </row>
@@ -5249,8 +5757,12 @@
       <c r="F85" t="n">
         <v>83</v>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>83</v>
+      </c>
+      <c r="H85" t="n">
+        <v>83</v>
+      </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -5266,7 +5778,9 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
-      <c r="X85" t="n">
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="n">
         <v>30.25661876488363</v>
       </c>
     </row>
@@ -5289,8 +5803,12 @@
       <c r="F86" t="n">
         <v>84</v>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>84</v>
+      </c>
+      <c r="H86" t="n">
+        <v>84</v>
+      </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -5306,7 +5824,9 @@
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
-      <c r="X86" t="n">
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="n">
         <v>30.87639364789294</v>
       </c>
     </row>
@@ -5326,8 +5846,12 @@
       <c r="E87" t="n">
         <v>85</v>
       </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>85</v>
+      </c>
+      <c r="G87" t="n">
+        <v>85</v>
+      </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -5344,7 +5868,9 @@
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
-      <c r="X87" t="n">
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="n">
         <v>28.66571473944788</v>
       </c>
     </row>
@@ -5364,8 +5890,12 @@
       <c r="E88" t="n">
         <v>86</v>
       </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>86</v>
+      </c>
+      <c r="G88" t="n">
+        <v>86</v>
+      </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -5382,7 +5912,9 @@
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
-      <c r="X88" t="n">
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="n">
         <v>28.8619683424098</v>
       </c>
     </row>
@@ -5402,8 +5934,12 @@
       <c r="E89" t="n">
         <v>87</v>
       </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>87</v>
+      </c>
+      <c r="G89" t="n">
+        <v>87</v>
+      </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -5420,7 +5956,9 @@
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
-      <c r="X89" t="n">
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="n">
         <v>29.76204140378684</v>
       </c>
     </row>
@@ -5440,8 +5978,12 @@
       <c r="E90" t="n">
         <v>88</v>
       </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>88</v>
+      </c>
+      <c r="G90" t="n">
+        <v>88</v>
+      </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -5458,7 +6000,9 @@
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
-      <c r="X90" t="n">
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="n">
         <v>29.70551151165625</v>
       </c>
     </row>
@@ -5478,8 +6022,12 @@
       <c r="E91" t="n">
         <v>89</v>
       </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>89</v>
+      </c>
+      <c r="G91" t="n">
+        <v>89</v>
+      </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -5496,7 +6044,9 @@
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
-      <c r="X91" t="n">
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="n">
         <v>29.53626048599176</v>
       </c>
     </row>
@@ -5513,8 +6063,12 @@
       <c r="D92" t="n">
         <v>90</v>
       </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>90</v>
+      </c>
+      <c r="F92" t="n">
+        <v>90</v>
+      </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -5532,7 +6086,9 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
-      <c r="X92" t="n">
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="n">
         <v>31.81960475475518</v>
       </c>
     </row>
@@ -5549,8 +6105,12 @@
       <c r="D93" t="n">
         <v>91</v>
       </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>91</v>
+      </c>
+      <c r="F93" t="n">
+        <v>91</v>
+      </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
@@ -5568,7 +6128,9 @@
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
-      <c r="X93" t="n">
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="n">
         <v>31.37961348567967</v>
       </c>
     </row>
@@ -5585,8 +6147,12 @@
       <c r="D94" t="n">
         <v>92</v>
       </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>92</v>
+      </c>
+      <c r="F94" t="n">
+        <v>92</v>
+      </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
@@ -5604,7 +6170,9 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
-      <c r="X94" t="n">
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="n">
         <v>30.52227511749885</v>
       </c>
     </row>
@@ -5621,8 +6189,12 @@
       <c r="D95" t="n">
         <v>93</v>
       </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>93</v>
+      </c>
+      <c r="F95" t="n">
+        <v>93</v>
+      </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
@@ -5640,7 +6212,9 @@
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
-      <c r="X95" t="n">
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="n">
         <v>30.01177979559196</v>
       </c>
     </row>
@@ -5657,8 +6231,12 @@
       <c r="D96" t="n">
         <v>94</v>
       </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>94</v>
+      </c>
+      <c r="F96" t="n">
+        <v>94</v>
+      </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
@@ -5676,7 +6254,9 @@
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
-      <c r="X96" t="n">
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="n">
         <v>29.68068125487758</v>
       </c>
     </row>
@@ -5690,8 +6270,12 @@
       <c r="C97" t="n">
         <v>95</v>
       </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>95</v>
+      </c>
+      <c r="E97" t="n">
+        <v>95</v>
+      </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
@@ -5710,7 +6294,9 @@
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
-      <c r="X97" t="n">
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="n">
         <v>28.48524969417264</v>
       </c>
     </row>
@@ -5724,8 +6310,12 @@
       <c r="C98" t="n">
         <v>96</v>
       </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>96</v>
+      </c>
+      <c r="E98" t="n">
+        <v>96</v>
+      </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
@@ -5744,7 +6334,9 @@
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
-      <c r="X98" t="n">
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="n">
         <v>28.19800917589612</v>
       </c>
     </row>
@@ -5758,8 +6350,12 @@
       <c r="C99" t="n">
         <v>97</v>
       </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>97</v>
+      </c>
+      <c r="E99" t="n">
+        <v>97</v>
+      </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
@@ -5778,7 +6374,9 @@
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="inlineStr"/>
-      <c r="X99" t="n">
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="n">
         <v>28.07364451451201</v>
       </c>
     </row>
@@ -5792,8 +6390,12 @@
       <c r="C100" t="n">
         <v>98</v>
       </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>98</v>
+      </c>
+      <c r="E100" t="n">
+        <v>98</v>
+      </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
@@ -5812,7 +6414,9 @@
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
-      <c r="X100" t="n">
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="n">
         <v>27.45626358928604</v>
       </c>
     </row>
@@ -5826,8 +6430,12 @@
       <c r="C101" t="n">
         <v>99</v>
       </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>99</v>
+      </c>
+      <c r="E101" t="n">
+        <v>99</v>
+      </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
@@ -5846,7 +6454,9 @@
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
-      <c r="X101" t="n">
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="n">
         <v>27.082753863184</v>
       </c>
     </row>
@@ -5857,8 +6467,12 @@
       <c r="B102" t="n">
         <v>100</v>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="n">
+        <v>100</v>
+      </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
@@ -5878,7 +6492,9 @@
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
-      <c r="X102" t="n">
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="n">
         <v>30.04719770579885</v>
       </c>
     </row>
@@ -5889,8 +6505,12 @@
       <c r="B103" t="n">
         <v>101</v>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="n">
+        <v>101</v>
+      </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -5910,7 +6530,9 @@
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr"/>
       <c r="W103" t="inlineStr"/>
-      <c r="X103" t="n">
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="n">
         <v>29.87993040248386</v>
       </c>
     </row>
@@ -5921,8 +6543,12 @@
       <c r="B104" t="n">
         <v>102</v>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="n">
+        <v>102</v>
+      </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
@@ -5942,7 +6568,9 @@
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr"/>
       <c r="W104" t="inlineStr"/>
-      <c r="X104" t="n">
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="n">
         <v>30.56610560735726</v>
       </c>
     </row>
@@ -5953,8 +6581,12 @@
       <c r="B105" t="n">
         <v>103</v>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="n">
+        <v>103</v>
+      </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
@@ -5974,7 +6606,9 @@
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="inlineStr"/>
-      <c r="X105" t="n">
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="n">
         <v>30.06053724054328</v>
       </c>
     </row>
@@ -5985,8 +6619,12 @@
       <c r="B106" t="n">
         <v>104</v>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="n">
+        <v>104</v>
+      </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
@@ -6006,7 +6644,9 @@
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr"/>
-      <c r="X106" t="n">
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="n">
         <v>29.52941175685311</v>
       </c>
     </row>
@@ -6014,8 +6654,12 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
@@ -6036,7 +6680,9 @@
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr"/>
       <c r="W107" t="inlineStr"/>
-      <c r="X107" t="n">
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="n">
         <v>27.93915337040551</v>
       </c>
     </row>
@@ -6044,8 +6690,12 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
@@ -6066,7 +6716,9 @@
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr"/>
       <c r="W108" t="inlineStr"/>
-      <c r="X108" t="n">
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="n">
         <v>27.49183705856683</v>
       </c>
     </row>
@@ -6074,8 +6726,12 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
@@ -6096,7 +6752,9 @@
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="inlineStr"/>
-      <c r="X109" t="n">
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="n">
         <v>26.52306883482839</v>
       </c>
     </row>
@@ -6104,8 +6762,12 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
@@ -6126,7 +6788,9 @@
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="inlineStr"/>
-      <c r="X110" t="n">
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="n">
         <v>26.21526698621722</v>
       </c>
     </row>
@@ -6134,8 +6798,12 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
@@ -6156,8 +6824,340 @@
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr"/>
       <c r="W111" t="inlineStr"/>
-      <c r="X111" t="n">
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="n">
         <v>25.41927120505517</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="n">
+        <v>30.55713549297184</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="n">
+        <v>30.68572778193078</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="n">
+        <v>31.27636768936412</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="n">
+        <v>32.14841671474608</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="n">
+        <v>32.02348350559629</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="n">
+        <v>29.34666426074131</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="n">
+        <v>29.09378027173381</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="n">
+        <v>28.30689777437033</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="n">
+        <v>27.28123622845254</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="n">
+        <v>26.96562751693779</v>
       </c>
     </row>
   </sheetData>

--- a/silver_fore.xlsx
+++ b/silver_fore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z121"/>
+  <dimension ref="A1:AB131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,125 +436,135 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.24</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.23</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.22</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.21</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.20</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.19</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.18</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.17</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.16</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.15</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.14</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.13</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">   SILVER_FOR</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>SILVER_FOR</t>
         </is>
@@ -634,9 +644,15 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>27.44466</v>
       </c>
-      <c r="Z2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -712,9 +728,15 @@
         <v>1</v>
       </c>
       <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
         <v>26.933548</v>
       </c>
-      <c r="Z3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -790,9 +812,15 @@
         <v>2</v>
       </c>
       <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="n">
         <v>27.173124</v>
       </c>
-      <c r="Z4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -868,9 +896,15 @@
         <v>3</v>
       </c>
       <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA5" t="n">
         <v>26.856646</v>
       </c>
-      <c r="Z5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -946,9 +980,15 @@
         <v>4</v>
       </c>
       <c r="Y6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA6" t="n">
         <v>26.422922</v>
       </c>
-      <c r="Z6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1020,9 +1060,15 @@
       <c r="W7" t="n">
         <v>5</v>
       </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="n">
+      <c r="X7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="n">
         <v>30.93059290717292</v>
       </c>
     </row>
@@ -1096,9 +1142,15 @@
       <c r="W8" t="n">
         <v>6</v>
       </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="n">
+      <c r="X8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="n">
         <v>30.6353459147918</v>
       </c>
     </row>
@@ -1172,9 +1224,15 @@
       <c r="W9" t="n">
         <v>7</v>
       </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="n">
+      <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="n">
         <v>30.30023174736436</v>
       </c>
     </row>
@@ -1248,9 +1306,15 @@
       <c r="W10" t="n">
         <v>8</v>
       </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="n">
+      <c r="X10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="n">
         <v>29.53532024840348</v>
       </c>
     </row>
@@ -1324,9 +1388,15 @@
       <c r="W11" t="n">
         <v>9</v>
       </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="n">
+      <c r="X11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="n">
         <v>29.15916464141611</v>
       </c>
     </row>
@@ -1397,10 +1467,16 @@
       <c r="V12" t="n">
         <v>10</v>
       </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
+      <c r="W12" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="n">
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="n">
         <v>31.76244298992617</v>
       </c>
     </row>
@@ -1471,10 +1547,16 @@
       <c r="V13" t="n">
         <v>11</v>
       </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11</v>
+      </c>
       <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="n">
         <v>32.23934168175691</v>
       </c>
     </row>
@@ -1545,10 +1627,16 @@
       <c r="V14" t="n">
         <v>12</v>
       </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>12</v>
+      </c>
+      <c r="X14" t="n">
+        <v>12</v>
+      </c>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="n">
         <v>32.5524573182023</v>
       </c>
     </row>
@@ -1619,10 +1707,16 @@
       <c r="V15" t="n">
         <v>13</v>
       </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
+      <c r="W15" t="n">
+        <v>13</v>
+      </c>
+      <c r="X15" t="n">
+        <v>13</v>
+      </c>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="n">
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="n">
         <v>32.38868114596181</v>
       </c>
     </row>
@@ -1693,10 +1787,16 @@
       <c r="V16" t="n">
         <v>14</v>
       </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>14</v>
+      </c>
+      <c r="X16" t="n">
+        <v>14</v>
+      </c>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="n">
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="n">
         <v>32.10415671664822</v>
       </c>
     </row>
@@ -1764,11 +1864,17 @@
       <c r="U17" t="n">
         <v>15</v>
       </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+      <c r="V17" t="n">
+        <v>15</v>
+      </c>
+      <c r="W17" t="n">
+        <v>15</v>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="n">
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="n">
         <v>28.81685345771996</v>
       </c>
     </row>
@@ -1836,11 +1942,17 @@
       <c r="U18" t="n">
         <v>16</v>
       </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+      <c r="V18" t="n">
+        <v>16</v>
+      </c>
+      <c r="W18" t="n">
+        <v>16</v>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="n">
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="n">
         <v>28.51061683625062</v>
       </c>
     </row>
@@ -1908,11 +2020,17 @@
       <c r="U19" t="n">
         <v>17</v>
       </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+      <c r="V19" t="n">
+        <v>17</v>
+      </c>
+      <c r="W19" t="n">
+        <v>17</v>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="n">
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="n">
         <v>27.67123246313037</v>
       </c>
     </row>
@@ -1980,11 +2098,17 @@
       <c r="U20" t="n">
         <v>18</v>
       </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
+      <c r="V20" t="n">
+        <v>18</v>
+      </c>
+      <c r="W20" t="n">
+        <v>18</v>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="n">
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="n">
         <v>27.34084839285276</v>
       </c>
     </row>
@@ -2052,11 +2176,17 @@
       <c r="U21" t="n">
         <v>19</v>
       </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+      <c r="V21" t="n">
+        <v>19</v>
+      </c>
+      <c r="W21" t="n">
+        <v>19</v>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="n">
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="n">
         <v>26.94339908891732</v>
       </c>
     </row>
@@ -2121,12 +2251,18 @@
       <c r="T22" t="n">
         <v>20</v>
       </c>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+      <c r="U22" t="n">
+        <v>20</v>
+      </c>
+      <c r="V22" t="n">
+        <v>20</v>
+      </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="n">
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="n">
         <v>29.09709106441289</v>
       </c>
     </row>
@@ -2191,12 +2327,18 @@
       <c r="T23" t="n">
         <v>21</v>
       </c>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>21</v>
+      </c>
+      <c r="V23" t="n">
+        <v>21</v>
+      </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="n">
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="n">
         <v>28.96379896414152</v>
       </c>
     </row>
@@ -2261,12 +2403,18 @@
       <c r="T24" t="n">
         <v>22</v>
       </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+      <c r="U24" t="n">
+        <v>22</v>
+      </c>
+      <c r="V24" t="n">
+        <v>22</v>
+      </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="n">
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="n">
         <v>28.94952882821161</v>
       </c>
     </row>
@@ -2331,12 +2479,18 @@
       <c r="T25" t="n">
         <v>23</v>
       </c>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
+      <c r="U25" t="n">
+        <v>23</v>
+      </c>
+      <c r="V25" t="n">
+        <v>23</v>
+      </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="n">
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="n">
         <v>29.52255201468267</v>
       </c>
     </row>
@@ -2401,12 +2555,18 @@
       <c r="T26" t="n">
         <v>24</v>
       </c>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>24</v>
+      </c>
+      <c r="V26" t="n">
+        <v>24</v>
+      </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="n">
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="n">
         <v>28.89384280964123</v>
       </c>
     </row>
@@ -2468,13 +2628,19 @@
       <c r="S27" t="n">
         <v>25</v>
       </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>25</v>
+      </c>
+      <c r="U27" t="n">
+        <v>25</v>
+      </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="n">
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="n">
         <v>28.95396845664823</v>
       </c>
     </row>
@@ -2536,13 +2702,19 @@
       <c r="S28" t="n">
         <v>26</v>
       </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>26</v>
+      </c>
+      <c r="U28" t="n">
+        <v>26</v>
+      </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="n">
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="n">
         <v>28.94541683747048</v>
       </c>
     </row>
@@ -2604,13 +2776,19 @@
       <c r="S29" t="n">
         <v>27</v>
       </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>27</v>
+      </c>
+      <c r="U29" t="n">
+        <v>27</v>
+      </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="n">
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="n">
         <v>28.70188153581586</v>
       </c>
     </row>
@@ -2672,13 +2850,19 @@
       <c r="S30" t="n">
         <v>28</v>
       </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>28</v>
+      </c>
+      <c r="U30" t="n">
+        <v>28</v>
+      </c>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="n">
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="n">
         <v>27.87425082086361</v>
       </c>
     </row>
@@ -2740,13 +2924,19 @@
       <c r="S31" t="n">
         <v>29</v>
       </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>29</v>
+      </c>
+      <c r="U31" t="n">
+        <v>29</v>
+      </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="n">
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="n">
         <v>28.09067066164505</v>
       </c>
     </row>
@@ -2805,14 +2995,20 @@
       <c r="R32" t="n">
         <v>30</v>
       </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>30</v>
+      </c>
+      <c r="T32" t="n">
+        <v>30</v>
+      </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="n">
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="n">
         <v>31.23943548728738</v>
       </c>
     </row>
@@ -2871,14 +3067,20 @@
       <c r="R33" t="n">
         <v>31</v>
       </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>31</v>
+      </c>
+      <c r="T33" t="n">
+        <v>31</v>
+      </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="n">
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="n">
         <v>31.04450482476813</v>
       </c>
     </row>
@@ -2937,14 +3139,20 @@
       <c r="R34" t="n">
         <v>32</v>
       </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>32</v>
+      </c>
+      <c r="T34" t="n">
+        <v>32</v>
+      </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="n">
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="n">
         <v>30.54658087863896</v>
       </c>
     </row>
@@ -3003,14 +3211,20 @@
       <c r="R35" t="n">
         <v>33</v>
       </c>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>33</v>
+      </c>
+      <c r="T35" t="n">
+        <v>33</v>
+      </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="n">
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="n">
         <v>30.17317577633884</v>
       </c>
     </row>
@@ -3069,14 +3283,20 @@
       <c r="R36" t="n">
         <v>34</v>
       </c>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>34</v>
+      </c>
+      <c r="T36" t="n">
+        <v>34</v>
+      </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="n">
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="n">
         <v>29.77593984989414</v>
       </c>
     </row>
@@ -3132,15 +3352,21 @@
       <c r="Q37" t="n">
         <v>35</v>
       </c>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>35</v>
+      </c>
+      <c r="S37" t="n">
+        <v>35</v>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="n">
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="n">
         <v>29.80264645196246</v>
       </c>
     </row>
@@ -3196,15 +3422,21 @@
       <c r="Q38" t="n">
         <v>36</v>
       </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>36</v>
+      </c>
+      <c r="S38" t="n">
+        <v>36</v>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="n">
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="n">
         <v>29.55922128062565</v>
       </c>
     </row>
@@ -3260,15 +3492,21 @@
       <c r="Q39" t="n">
         <v>37</v>
       </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>37</v>
+      </c>
+      <c r="S39" t="n">
+        <v>37</v>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="n">
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="n">
         <v>29.30527315742233</v>
       </c>
     </row>
@@ -3324,15 +3562,21 @@
       <c r="Q40" t="n">
         <v>38</v>
       </c>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>38</v>
+      </c>
+      <c r="S40" t="n">
+        <v>38</v>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="n">
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="n">
         <v>28.8122954391917</v>
       </c>
     </row>
@@ -3388,15 +3632,21 @@
       <c r="Q41" t="n">
         <v>39</v>
       </c>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>39</v>
+      </c>
+      <c r="S41" t="n">
+        <v>39</v>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="n">
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="n">
         <v>28.18952363490905</v>
       </c>
     </row>
@@ -3449,8 +3699,12 @@
       <c r="P42" t="n">
         <v>40</v>
       </c>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>40</v>
+      </c>
+      <c r="R42" t="n">
+        <v>40</v>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -3458,7 +3712,9 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="n">
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="n">
         <v>30.70601929298681</v>
       </c>
     </row>
@@ -3511,8 +3767,12 @@
       <c r="P43" t="n">
         <v>41</v>
       </c>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="Q43" t="n">
+        <v>41</v>
+      </c>
+      <c r="R43" t="n">
+        <v>41</v>
+      </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -3520,7 +3780,9 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="n">
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="n">
         <v>30.43889270062886</v>
       </c>
     </row>
@@ -3573,8 +3835,12 @@
       <c r="P44" t="n">
         <v>42</v>
       </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="Q44" t="n">
+        <v>42</v>
+      </c>
+      <c r="R44" t="n">
+        <v>42</v>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
@@ -3582,7 +3848,9 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="n">
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="n">
         <v>30.30290516082914</v>
       </c>
     </row>
@@ -3635,8 +3903,12 @@
       <c r="P45" t="n">
         <v>43</v>
       </c>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>43</v>
+      </c>
+      <c r="R45" t="n">
+        <v>43</v>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -3644,7 +3916,9 @@
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="n">
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="n">
         <v>30.37639649853105</v>
       </c>
     </row>
@@ -3697,8 +3971,12 @@
       <c r="P46" t="n">
         <v>44</v>
       </c>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>44</v>
+      </c>
+      <c r="R46" t="n">
+        <v>44</v>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -3706,7 +3984,9 @@
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="n">
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="n">
         <v>29.82201011509096</v>
       </c>
     </row>
@@ -3756,8 +4036,12 @@
       <c r="O47" t="n">
         <v>45</v>
       </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
+      <c r="P47" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>45</v>
+      </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -3766,7 +4050,9 @@
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="n">
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="n">
         <v>28.05217323242647</v>
       </c>
     </row>
@@ -3816,8 +4102,12 @@
       <c r="O48" t="n">
         <v>46</v>
       </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
+      <c r="P48" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>46</v>
+      </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -3826,7 +4116,9 @@
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="n">
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="n">
         <v>27.89165416433514</v>
       </c>
     </row>
@@ -3876,8 +4168,12 @@
       <c r="O49" t="n">
         <v>47</v>
       </c>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
+      <c r="P49" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>47</v>
+      </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
@@ -3886,7 +4182,9 @@
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="n">
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="n">
         <v>28.205499414136</v>
       </c>
     </row>
@@ -3936,8 +4234,12 @@
       <c r="O50" t="n">
         <v>48</v>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
+      <c r="P50" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>48</v>
+      </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -3946,7 +4248,9 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="n">
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="n">
         <v>28.41437395151866</v>
       </c>
     </row>
@@ -3996,8 +4300,12 @@
       <c r="O51" t="n">
         <v>49</v>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
+      <c r="P51" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>49</v>
+      </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
@@ -4006,7 +4314,9 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="n">
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="n">
         <v>28.78275573469779</v>
       </c>
     </row>
@@ -4053,8 +4363,12 @@
       <c r="N52" t="n">
         <v>50</v>
       </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
+      <c r="O52" t="n">
+        <v>50</v>
+      </c>
+      <c r="P52" t="n">
+        <v>50</v>
+      </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
@@ -4064,7 +4378,9 @@
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="n">
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="n">
         <v>31.55722890898164</v>
       </c>
     </row>
@@ -4111,8 +4427,12 @@
       <c r="N53" t="n">
         <v>51</v>
       </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
+      <c r="O53" t="n">
+        <v>51</v>
+      </c>
+      <c r="P53" t="n">
+        <v>51</v>
+      </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
@@ -4122,7 +4442,9 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="n">
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="n">
         <v>30.83284674360289</v>
       </c>
     </row>
@@ -4169,8 +4491,12 @@
       <c r="N54" t="n">
         <v>52</v>
       </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+      <c r="O54" t="n">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>52</v>
+      </c>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
@@ -4180,7 +4506,9 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="n">
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="n">
         <v>30.74265827309239</v>
       </c>
     </row>
@@ -4227,8 +4555,12 @@
       <c r="N55" t="n">
         <v>53</v>
       </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
+      <c r="O55" t="n">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>53</v>
+      </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
@@ -4238,7 +4570,9 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="n">
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="n">
         <v>30.71705159757317</v>
       </c>
     </row>
@@ -4285,8 +4619,12 @@
       <c r="N56" t="n">
         <v>54</v>
       </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
+      <c r="O56" t="n">
+        <v>54</v>
+      </c>
+      <c r="P56" t="n">
+        <v>54</v>
+      </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
@@ -4296,7 +4634,9 @@
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="n">
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="n">
         <v>30.40893174766933</v>
       </c>
     </row>
@@ -4340,8 +4680,12 @@
       <c r="M57" t="n">
         <v>55</v>
       </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>55</v>
+      </c>
+      <c r="O57" t="n">
+        <v>55</v>
+      </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
@@ -4352,7 +4696,9 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="n">
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="n">
         <v>30.00756593430685</v>
       </c>
     </row>
@@ -4396,8 +4742,12 @@
       <c r="M58" t="n">
         <v>56</v>
       </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>56</v>
+      </c>
+      <c r="O58" t="n">
+        <v>56</v>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -4408,7 +4758,9 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="n">
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="n">
         <v>29.61517987173261</v>
       </c>
     </row>
@@ -4452,8 +4804,12 @@
       <c r="M59" t="n">
         <v>57</v>
       </c>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="N59" t="n">
+        <v>57</v>
+      </c>
+      <c r="O59" t="n">
+        <v>57</v>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -4464,7 +4820,9 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="n">
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="n">
         <v>28.95441448443535</v>
       </c>
     </row>
@@ -4508,8 +4866,12 @@
       <c r="M60" t="n">
         <v>58</v>
       </c>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="N60" t="n">
+        <v>58</v>
+      </c>
+      <c r="O60" t="n">
+        <v>58</v>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -4520,7 +4882,9 @@
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="n">
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="n">
         <v>28.93568544726321</v>
       </c>
     </row>
@@ -4564,8 +4928,12 @@
       <c r="M61" t="n">
         <v>59</v>
       </c>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="N61" t="n">
+        <v>59</v>
+      </c>
+      <c r="O61" t="n">
+        <v>59</v>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -4576,7 +4944,9 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="n">
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="n">
         <v>29.07687113806344</v>
       </c>
     </row>
@@ -4617,8 +4987,12 @@
       <c r="L62" t="n">
         <v>60</v>
       </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>60</v>
+      </c>
+      <c r="N62" t="n">
+        <v>60</v>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -4630,7 +5004,9 @@
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="n">
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="n">
         <v>30.66437626656585</v>
       </c>
     </row>
@@ -4671,8 +5047,12 @@
       <c r="L63" t="n">
         <v>61</v>
       </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>61</v>
+      </c>
+      <c r="N63" t="n">
+        <v>61</v>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -4684,7 +5064,9 @@
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="n">
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="n">
         <v>29.71554851349543</v>
       </c>
     </row>
@@ -4725,8 +5107,12 @@
       <c r="L64" t="n">
         <v>62</v>
       </c>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>62</v>
+      </c>
+      <c r="N64" t="n">
+        <v>62</v>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -4738,7 +5124,9 @@
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="n">
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="n">
         <v>29.37691292915611</v>
       </c>
     </row>
@@ -4779,8 +5167,12 @@
       <c r="L65" t="n">
         <v>63</v>
       </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>63</v>
+      </c>
+      <c r="N65" t="n">
+        <v>63</v>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -4792,7 +5184,9 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="n">
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="n">
         <v>29.73525220398017</v>
       </c>
     </row>
@@ -4833,8 +5227,12 @@
       <c r="L66" t="n">
         <v>64</v>
       </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>64</v>
+      </c>
+      <c r="N66" t="n">
+        <v>64</v>
+      </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
@@ -4846,7 +5244,9 @@
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="n">
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="n">
         <v>30.20347400339665</v>
       </c>
     </row>
@@ -4884,8 +5284,12 @@
       <c r="K67" t="n">
         <v>65</v>
       </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>65</v>
+      </c>
+      <c r="M67" t="n">
+        <v>65</v>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
@@ -4898,7 +5302,9 @@
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="n">
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="n">
         <v>30.05011065270486</v>
       </c>
     </row>
@@ -4936,8 +5342,12 @@
       <c r="K68" t="n">
         <v>66</v>
       </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>66</v>
+      </c>
+      <c r="M68" t="n">
+        <v>66</v>
+      </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
@@ -4950,7 +5360,9 @@
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="n">
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="n">
         <v>29.4726120454439</v>
       </c>
     </row>
@@ -4988,8 +5400,12 @@
       <c r="K69" t="n">
         <v>67</v>
       </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>67</v>
+      </c>
+      <c r="M69" t="n">
+        <v>67</v>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
@@ -5002,7 +5418,9 @@
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="n">
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="n">
         <v>29.81097643387562</v>
       </c>
     </row>
@@ -5040,8 +5458,12 @@
       <c r="K70" t="n">
         <v>68</v>
       </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>68</v>
+      </c>
+      <c r="M70" t="n">
+        <v>68</v>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
@@ -5054,7 +5476,9 @@
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="n">
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="n">
         <v>29.90499743944582</v>
       </c>
     </row>
@@ -5092,8 +5516,12 @@
       <c r="K71" t="n">
         <v>69</v>
       </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>69</v>
+      </c>
+      <c r="M71" t="n">
+        <v>69</v>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
@@ -5106,7 +5534,9 @@
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="n">
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="n">
         <v>29.14887020995906</v>
       </c>
     </row>
@@ -5141,8 +5571,12 @@
       <c r="J72" t="n">
         <v>70</v>
       </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>70</v>
+      </c>
+      <c r="L72" t="n">
+        <v>70</v>
+      </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5156,7 +5590,9 @@
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="n">
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="n">
         <v>30.23977983929086</v>
       </c>
     </row>
@@ -5191,8 +5627,12 @@
       <c r="J73" t="n">
         <v>71</v>
       </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>71</v>
+      </c>
+      <c r="L73" t="n">
+        <v>71</v>
+      </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5206,7 +5646,9 @@
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="n">
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="n">
         <v>30.38220174290848</v>
       </c>
     </row>
@@ -5241,8 +5683,12 @@
       <c r="J74" t="n">
         <v>72</v>
       </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>72</v>
+      </c>
+      <c r="L74" t="n">
+        <v>72</v>
+      </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5256,7 +5702,9 @@
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="n">
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="n">
         <v>30.49393445684007</v>
       </c>
     </row>
@@ -5291,8 +5739,12 @@
       <c r="J75" t="n">
         <v>73</v>
       </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>73</v>
+      </c>
+      <c r="L75" t="n">
+        <v>73</v>
+      </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -5306,7 +5758,9 @@
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="n">
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="n">
         <v>30.98144420479156</v>
       </c>
     </row>
@@ -5341,8 +5795,12 @@
       <c r="J76" t="n">
         <v>74</v>
       </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>74</v>
+      </c>
+      <c r="L76" t="n">
+        <v>74</v>
+      </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5356,7 +5814,9 @@
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="n">
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="n">
         <v>30.88058823637243</v>
       </c>
     </row>
@@ -5388,8 +5848,12 @@
       <c r="I77" t="n">
         <v>75</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>75</v>
+      </c>
+      <c r="K77" t="n">
+        <v>75</v>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -5404,7 +5868,9 @@
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="n">
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="n">
         <v>29.5957914292826</v>
       </c>
     </row>
@@ -5436,8 +5902,12 @@
       <c r="I78" t="n">
         <v>76</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>76</v>
+      </c>
+      <c r="K78" t="n">
+        <v>76</v>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
@@ -5452,7 +5922,9 @@
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="n">
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="n">
         <v>29.50264458311</v>
       </c>
     </row>
@@ -5484,8 +5956,12 @@
       <c r="I79" t="n">
         <v>77</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>77</v>
+      </c>
+      <c r="K79" t="n">
+        <v>77</v>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
@@ -5500,7 +5976,9 @@
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="n">
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="n">
         <v>29.43434864315066</v>
       </c>
     </row>
@@ -5532,8 +6010,12 @@
       <c r="I80" t="n">
         <v>78</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>78</v>
+      </c>
+      <c r="K80" t="n">
+        <v>78</v>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
@@ -5548,7 +6030,9 @@
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="n">
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="n">
         <v>29.30550030120281</v>
       </c>
     </row>
@@ -5580,8 +6064,12 @@
       <c r="I81" t="n">
         <v>79</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>79</v>
+      </c>
+      <c r="K81" t="n">
+        <v>79</v>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -5596,7 +6084,9 @@
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="n">
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="n">
         <v>28.88129208329809</v>
       </c>
     </row>
@@ -5625,8 +6115,12 @@
       <c r="H82" t="n">
         <v>80</v>
       </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>80</v>
+      </c>
+      <c r="J82" t="n">
+        <v>80</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
@@ -5642,7 +6136,9 @@
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="n">
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="n">
         <v>30.46725951723812</v>
       </c>
     </row>
@@ -5671,8 +6167,12 @@
       <c r="H83" t="n">
         <v>81</v>
       </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>81</v>
+      </c>
+      <c r="J83" t="n">
+        <v>81</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -5688,7 +6188,9 @@
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="n">
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="n">
         <v>30.30320113605825</v>
       </c>
     </row>
@@ -5717,8 +6219,12 @@
       <c r="H84" t="n">
         <v>82</v>
       </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>82</v>
+      </c>
+      <c r="J84" t="n">
+        <v>82</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -5734,7 +6240,9 @@
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="n">
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="n">
         <v>30.33314281621216</v>
       </c>
     </row>
@@ -5763,8 +6271,12 @@
       <c r="H85" t="n">
         <v>83</v>
       </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>83</v>
+      </c>
+      <c r="J85" t="n">
+        <v>83</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
@@ -5780,7 +6292,9 @@
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="n">
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="n">
         <v>30.25661876488363</v>
       </c>
     </row>
@@ -5809,8 +6323,12 @@
       <c r="H86" t="n">
         <v>84</v>
       </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>84</v>
+      </c>
+      <c r="J86" t="n">
+        <v>84</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
@@ -5826,7 +6344,9 @@
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="n">
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="n">
         <v>30.87639364789294</v>
       </c>
     </row>
@@ -5852,8 +6372,12 @@
       <c r="G87" t="n">
         <v>85</v>
       </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>85</v>
+      </c>
+      <c r="I87" t="n">
+        <v>85</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
@@ -5870,7 +6394,9 @@
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="n">
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="n">
         <v>28.66571473944788</v>
       </c>
     </row>
@@ -5896,8 +6422,12 @@
       <c r="G88" t="n">
         <v>86</v>
       </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>86</v>
+      </c>
+      <c r="I88" t="n">
+        <v>86</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
@@ -5914,7 +6444,9 @@
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="n">
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="n">
         <v>28.8619683424098</v>
       </c>
     </row>
@@ -5940,8 +6472,12 @@
       <c r="G89" t="n">
         <v>87</v>
       </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>87</v>
+      </c>
+      <c r="I89" t="n">
+        <v>87</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
@@ -5958,7 +6494,9 @@
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="n">
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="n">
         <v>29.76204140378684</v>
       </c>
     </row>
@@ -5984,8 +6522,12 @@
       <c r="G90" t="n">
         <v>88</v>
       </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+      <c r="H90" t="n">
+        <v>88</v>
+      </c>
+      <c r="I90" t="n">
+        <v>88</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
@@ -6002,7 +6544,9 @@
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="n">
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="n">
         <v>29.70551151165625</v>
       </c>
     </row>
@@ -6028,8 +6572,12 @@
       <c r="G91" t="n">
         <v>89</v>
       </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>89</v>
+      </c>
+      <c r="I91" t="n">
+        <v>89</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
@@ -6046,7 +6594,9 @@
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="n">
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="n">
         <v>29.53626048599176</v>
       </c>
     </row>
@@ -6069,8 +6619,12 @@
       <c r="F92" t="n">
         <v>90</v>
       </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>90</v>
+      </c>
+      <c r="H92" t="n">
+        <v>90</v>
+      </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -6088,7 +6642,9 @@
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="n">
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="n">
         <v>31.81960475475518</v>
       </c>
     </row>
@@ -6111,8 +6667,12 @@
       <c r="F93" t="n">
         <v>91</v>
       </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>91</v>
+      </c>
+      <c r="H93" t="n">
+        <v>91</v>
+      </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -6130,7 +6690,9 @@
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="n">
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="n">
         <v>31.37961348567967</v>
       </c>
     </row>
@@ -6153,8 +6715,12 @@
       <c r="F94" t="n">
         <v>92</v>
       </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>92</v>
+      </c>
+      <c r="H94" t="n">
+        <v>92</v>
+      </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -6172,7 +6738,9 @@
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="n">
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="n">
         <v>30.52227511749885</v>
       </c>
     </row>
@@ -6195,8 +6763,12 @@
       <c r="F95" t="n">
         <v>93</v>
       </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>93</v>
+      </c>
+      <c r="H95" t="n">
+        <v>93</v>
+      </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -6214,7 +6786,9 @@
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="n">
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="n">
         <v>30.01177979559196</v>
       </c>
     </row>
@@ -6237,8 +6811,12 @@
       <c r="F96" t="n">
         <v>94</v>
       </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>94</v>
+      </c>
+      <c r="H96" t="n">
+        <v>94</v>
+      </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -6256,7 +6834,9 @@
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="n">
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="n">
         <v>29.68068125487758</v>
       </c>
     </row>
@@ -6276,8 +6856,12 @@
       <c r="E97" t="n">
         <v>95</v>
       </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>95</v>
+      </c>
+      <c r="G97" t="n">
+        <v>95</v>
+      </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -6296,7 +6880,9 @@
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="n">
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="n">
         <v>28.48524969417264</v>
       </c>
     </row>
@@ -6316,8 +6902,12 @@
       <c r="E98" t="n">
         <v>96</v>
       </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>96</v>
+      </c>
+      <c r="G98" t="n">
+        <v>96</v>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -6336,7 +6926,9 @@
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="n">
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="n">
         <v>28.19800917589612</v>
       </c>
     </row>
@@ -6356,8 +6948,12 @@
       <c r="E99" t="n">
         <v>97</v>
       </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>97</v>
+      </c>
+      <c r="G99" t="n">
+        <v>97</v>
+      </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -6376,7 +6972,9 @@
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="n">
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="n">
         <v>28.07364451451201</v>
       </c>
     </row>
@@ -6396,8 +6994,12 @@
       <c r="E100" t="n">
         <v>98</v>
       </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>98</v>
+      </c>
+      <c r="G100" t="n">
+        <v>98</v>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -6416,7 +7018,9 @@
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="n">
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="n">
         <v>27.45626358928604</v>
       </c>
     </row>
@@ -6436,8 +7040,12 @@
       <c r="E101" t="n">
         <v>99</v>
       </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>99</v>
+      </c>
+      <c r="G101" t="n">
+        <v>99</v>
+      </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -6456,7 +7064,9 @@
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="n">
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="n">
         <v>27.082753863184</v>
       </c>
     </row>
@@ -6473,8 +7083,12 @@
       <c r="D102" t="n">
         <v>100</v>
       </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>100</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100</v>
+      </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
@@ -6494,7 +7108,9 @@
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr"/>
       <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="n">
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="n">
         <v>30.04719770579885</v>
       </c>
     </row>
@@ -6511,8 +7127,12 @@
       <c r="D103" t="n">
         <v>101</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
+      <c r="E103" t="n">
+        <v>101</v>
+      </c>
+      <c r="F103" t="n">
+        <v>101</v>
+      </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
@@ -6532,7 +7152,9 @@
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr"/>
       <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="n">
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="n">
         <v>29.87993040248386</v>
       </c>
     </row>
@@ -6549,8 +7171,12 @@
       <c r="D104" t="n">
         <v>102</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
+      <c r="E104" t="n">
+        <v>102</v>
+      </c>
+      <c r="F104" t="n">
+        <v>102</v>
+      </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
@@ -6570,7 +7196,9 @@
       <c r="W104" t="inlineStr"/>
       <c r="X104" t="inlineStr"/>
       <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="n">
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="n">
         <v>30.56610560735726</v>
       </c>
     </row>
@@ -6587,8 +7215,12 @@
       <c r="D105" t="n">
         <v>103</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>103</v>
+      </c>
+      <c r="F105" t="n">
+        <v>103</v>
+      </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
@@ -6608,7 +7240,9 @@
       <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr"/>
       <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="n">
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="n">
         <v>30.06053724054328</v>
       </c>
     </row>
@@ -6625,8 +7259,12 @@
       <c r="D106" t="n">
         <v>104</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>104</v>
+      </c>
+      <c r="F106" t="n">
+        <v>104</v>
+      </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
@@ -6646,7 +7284,9 @@
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="n">
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="n">
         <v>29.52941175685311</v>
       </c>
     </row>
@@ -6660,8 +7300,12 @@
       <c r="C107" t="n">
         <v>105</v>
       </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+      <c r="D107" t="n">
+        <v>105</v>
+      </c>
+      <c r="E107" t="n">
+        <v>105</v>
+      </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
@@ -6682,7 +7326,9 @@
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr"/>
       <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="n">
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="n">
         <v>27.93915337040551</v>
       </c>
     </row>
@@ -6696,8 +7342,12 @@
       <c r="C108" t="n">
         <v>106</v>
       </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+      <c r="D108" t="n">
+        <v>106</v>
+      </c>
+      <c r="E108" t="n">
+        <v>106</v>
+      </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
@@ -6718,7 +7368,9 @@
       <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr"/>
       <c r="Y108" t="inlineStr"/>
-      <c r="Z108" t="n">
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="n">
         <v>27.49183705856683</v>
       </c>
     </row>
@@ -6732,8 +7384,12 @@
       <c r="C109" t="n">
         <v>107</v>
       </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
+      <c r="D109" t="n">
+        <v>107</v>
+      </c>
+      <c r="E109" t="n">
+        <v>107</v>
+      </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
@@ -6754,7 +7410,9 @@
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr"/>
       <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="n">
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="n">
         <v>26.52306883482839</v>
       </c>
     </row>
@@ -6768,8 +7426,12 @@
       <c r="C110" t="n">
         <v>108</v>
       </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+      <c r="D110" t="n">
+        <v>108</v>
+      </c>
+      <c r="E110" t="n">
+        <v>108</v>
+      </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
@@ -6790,7 +7452,9 @@
       <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr"/>
       <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="n">
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
+      <c r="AB110" t="n">
         <v>26.21526698621722</v>
       </c>
     </row>
@@ -6804,8 +7468,12 @@
       <c r="C111" t="n">
         <v>109</v>
       </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
+      <c r="D111" t="n">
+        <v>109</v>
+      </c>
+      <c r="E111" t="n">
+        <v>109</v>
+      </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
@@ -6826,7 +7494,9 @@
       <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr"/>
       <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="n">
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="n">
         <v>25.41927120505517</v>
       </c>
     </row>
@@ -6837,8 +7507,12 @@
       <c r="B112" t="n">
         <v>110</v>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="n">
+        <v>110</v>
+      </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
@@ -6860,7 +7534,9 @@
       <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr"/>
       <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="n">
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="n">
         <v>30.55713549297184</v>
       </c>
     </row>
@@ -6871,8 +7547,12 @@
       <c r="B113" t="n">
         <v>111</v>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="n">
+        <v>111</v>
+      </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -6894,7 +7574,9 @@
       <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr"/>
       <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="n">
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="n">
         <v>30.68572778193078</v>
       </c>
     </row>
@@ -6905,8 +7587,12 @@
       <c r="B114" t="n">
         <v>112</v>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="n">
+        <v>112</v>
+      </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
@@ -6928,7 +7614,9 @@
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr"/>
       <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="n">
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="n">
         <v>31.27636768936412</v>
       </c>
     </row>
@@ -6939,8 +7627,12 @@
       <c r="B115" t="n">
         <v>113</v>
       </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="n">
+        <v>113</v>
+      </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
@@ -6962,7 +7654,9 @@
       <c r="W115" t="inlineStr"/>
       <c r="X115" t="inlineStr"/>
       <c r="Y115" t="inlineStr"/>
-      <c r="Z115" t="n">
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="n">
         <v>32.14841671474608</v>
       </c>
     </row>
@@ -6973,8 +7667,12 @@
       <c r="B116" t="n">
         <v>114</v>
       </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="n">
+        <v>114</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -6996,7 +7694,9 @@
       <c r="W116" t="inlineStr"/>
       <c r="X116" t="inlineStr"/>
       <c r="Y116" t="inlineStr"/>
-      <c r="Z116" t="n">
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+      <c r="AB116" t="n">
         <v>32.02348350559629</v>
       </c>
     </row>
@@ -7004,8 +7704,12 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -7028,7 +7732,9 @@
       <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr"/>
       <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="n">
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+      <c r="AB117" t="n">
         <v>29.34666426074131</v>
       </c>
     </row>
@@ -7036,8 +7742,12 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
@@ -7060,7 +7770,9 @@
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr"/>
       <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="n">
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+      <c r="AB118" t="n">
         <v>29.09378027173381</v>
       </c>
     </row>
@@ -7068,8 +7780,12 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
@@ -7092,7 +7808,9 @@
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr"/>
       <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="n">
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+      <c r="AB119" t="n">
         <v>28.30689777437033</v>
       </c>
     </row>
@@ -7100,8 +7818,12 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
@@ -7124,7 +7846,9 @@
       <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr"/>
       <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="n">
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
+      <c r="AB120" t="n">
         <v>27.28123622845254</v>
       </c>
     </row>
@@ -7132,8 +7856,12 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
@@ -7156,8 +7884,360 @@
       <c r="W121" t="inlineStr"/>
       <c r="X121" t="inlineStr"/>
       <c r="Y121" t="inlineStr"/>
-      <c r="Z121" t="n">
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
+      <c r="AB121" t="n">
         <v>26.96562751693779</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
+      <c r="AB122" t="n">
+        <v>27.95254797030884</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
+      <c r="AB123" t="n">
+        <v>27.6109595168233</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
+      <c r="AB124" t="n">
+        <v>27.9630833118361</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
+      <c r="AB125" t="n">
+        <v>29.17487610788032</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
+      <c r="AB126" t="n">
+        <v>30.40389328562964</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
+      <c r="AB127" t="n">
+        <v>29.01165884700271</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
+      <c r="AB128" t="n">
+        <v>29.91346095436933</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr"/>
+      <c r="AB129" t="n">
+        <v>30.88637696120219</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr"/>
+      <c r="AB130" t="n">
+        <v>30.34193947534703</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="inlineStr"/>
+      <c r="AB131" t="n">
+        <v>30.50648380655423</v>
       </c>
     </row>
   </sheetData>
